--- a/resources/pdfs/Finished/Table 2/1996_tb2.xlsx
+++ b/resources/pdfs/Finished/Table 2/1996_tb2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\expenditure-reports-project\resources\pdfs\Finished\Table 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F623D0-B5EC-4455-BEB1-23615332A626}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDD12E-9683-4062-A104-FDEEA2D4F67B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7320" xr2:uid="{EE760443-8F81-4A2C-AEA2-060CAB4917CB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1045">
   <si>
     <t>TABLE 2. SPECIES RANKED IN DESCENDING ORDER OF TOTAL
 FY 1996 REPORTED EXPENDITURES ($000)</t>
@@ -1757,6 +1757,1454 @@
   </si>
   <si>
     <t>Gecko, Monito</t>
+  </si>
+  <si>
+    <t>Poolfish, Pahrump</t>
+  </si>
+  <si>
+    <t>Uhiuhi</t>
+  </si>
+  <si>
+    <t>Isopod, Socorro</t>
+  </si>
+  <si>
+    <t>Springsnail, Alamosa</t>
+  </si>
+  <si>
+    <t>Springsnail, Socorro</t>
+  </si>
+  <si>
+    <t>Aster, Ruth's golden</t>
+  </si>
+  <si>
+    <t>Na'ena'e</t>
+  </si>
+  <si>
+    <t>Pigtoe, rough</t>
+  </si>
+  <si>
+    <t>Acornshell, southern</t>
+  </si>
+  <si>
+    <t>Tetramolopium filiformej=Sci name)</t>
+  </si>
+  <si>
+    <t>Pearlymussel, little-wing</t>
+  </si>
+  <si>
+    <t>Milk-vetch, heliotrope</t>
+  </si>
+  <si>
+    <t>Alani (Melicope lydgatei = Sci name)</t>
+  </si>
+  <si>
+    <t>Beauty, Harper's</t>
+  </si>
+  <si>
+    <t>Birch, Virginia round-leaf</t>
+  </si>
+  <si>
+    <t>Dace, Clover Valley speckled</t>
+  </si>
+  <si>
+    <t>Dace, Independence Valley speckled</t>
+  </si>
+  <si>
+    <t>Hawk, Puerto Rican sharp-shinned</t>
+  </si>
+  <si>
+    <t>Pupfish, Comanche Springs</t>
+  </si>
+  <si>
+    <t>Vole, Florida salt marsh</t>
+  </si>
+  <si>
+    <t>Bladderpod, Missouri</t>
+  </si>
+  <si>
+    <t>Hedyotis parvula (=Sci name)</t>
+  </si>
+  <si>
+    <t>Kulu'i</t>
+  </si>
+  <si>
+    <t>Pearlymussel, Cumberland monkeyface</t>
+  </si>
+  <si>
+    <t>Harperelia</t>
+  </si>
+  <si>
+    <t>Darter, goldline</t>
+  </si>
+  <si>
+    <t>Kamakahala</t>
+  </si>
+  <si>
+    <t>$7.50 _</t>
+  </si>
+  <si>
+    <t>Mussel, ring pink (=golf stick pearly)</t>
+  </si>
+  <si>
+    <t>Turtle, ringed map (=sawback)</t>
+  </si>
+  <si>
+    <t>$7.23
+.</t>
+  </si>
+  <si>
+    <t>$266,667.34
+_</t>
+  </si>
+  <si>
+    <t>Amphianthus, little</t>
+  </si>
+  <si>
+    <t>$266,674.57
+_</t>
+  </si>
+  <si>
+    <t>Trillium, persistent</t>
+  </si>
+  <si>
+    <t>Chub, Yaqui</t>
+  </si>
+  <si>
+    <t>Toad, Puerto Rican crested</t>
+  </si>
+  <si>
+    <t>Auerodendron pauciflorum (=Sci name)</t>
+  </si>
+  <si>
+    <t>$266,702.97
+.</t>
+  </si>
+  <si>
+    <t>Birds-in-a-nest, white</t>
+  </si>
+  <si>
+    <t>Boa, Virgin Islands tree</t>
+  </si>
+  <si>
+    <t>Calyptranthes thomasiana (=Sci name)</t>
+  </si>
+  <si>
+    <t>Cyanea superba (=Sci name)</t>
+  </si>
+  <si>
+    <t>601__</t>
+  </si>
+  <si>
+    <t>Dabhno_Esis hellerana name)
+_(_=Sci</t>
+  </si>
+  <si>
+    <t>Iguana, Mona ground</t>
+  </si>
+  <si>
+    <t>•
+$266,744.97</t>
+  </si>
+  <si>
+    <t>'hi ihi</t>
+  </si>
+  <si>
+    <t>Palo de Niqya</t>
+  </si>
+  <si>
+    <t>Pamakani (Viola chamissoniana ssp. chamissoniana = .._ _</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panicgrass, Carter's</t>
+  </si>
+  <si>
+    <t>$7.00
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauoa </t>
+  </si>
+  <si>
+    <t>Pteris lidgatei (=Sci name)</t>
+  </si>
+  <si>
+    <t>Skullcap, Florida</t>
+  </si>
+  <si>
+    <t>Vetch, Hawaiian</t>
+  </si>
+  <si>
+    <t>Madtom, Smoky</t>
+  </si>
+  <si>
+    <t>Koki'o (=hau-hele'ula or Hawaii tree cotton)</t>
+  </si>
+  <si>
+    <t>Milk-vetch, Sentry</t>
+  </si>
+  <si>
+    <t>Snail, Iowa Pleistocene</t>
+  </si>
+  <si>
+    <t>Prairie-clover, leafy</t>
+  </si>
+  <si>
+    <t>Haha (Cyanea shipmannii= Sci name)</t>
+  </si>
+  <si>
+    <t>Sand-verbena, large-fruited</t>
+  </si>
+  <si>
+    <t>Darter, duskytail</t>
+  </si>
+  <si>
+    <t>Delissea rhytidosperma (=Sci name)</t>
+  </si>
+  <si>
+    <t>Daisy, Maguire</t>
+  </si>
+  <si>
+    <t>'Aiakeakua, popolo</t>
+  </si>
+  <si>
+    <t>Alsinidendron obovatum (=Sci name)</t>
+  </si>
+  <si>
+    <t>Haha (Cyanea grimesiana spp. obatae = Sci name)</t>
+  </si>
+  <si>
+    <t>Pupfish, Ash Meadows Amargosa</t>
+  </si>
+  <si>
+    <t>Stenogyne kanehoana (=Sci name)</t>
+  </si>
+  <si>
+    <t>Torreya, Florida</t>
+  </si>
+  <si>
+    <t>$6.50
+.</t>
+  </si>
+  <si>
+    <t>632
+_</t>
+  </si>
+  <si>
+    <t>Harvestman, Bone_Cave
+_</t>
+  </si>
+  <si>
+    <t>$6.40
+.</t>
+  </si>
+  <si>
+    <t>$266,913.56
+.</t>
+  </si>
+  <si>
+    <t>Spiraea, Virginia</t>
+  </si>
+  <si>
+    <t>Fatmucket, Arkansas</t>
+  </si>
+  <si>
+    <t>Geocarpon minimum_(=Sci name)</t>
+  </si>
+  <si>
+    <t>Kokio, Cooke's</t>
+  </si>
+  <si>
+    <t>Beetle. Kretschmarr Cave mold</t>
+  </si>
+  <si>
+    <t>$266.945.16</t>
+  </si>
+  <si>
+    <t>Beetle. Tooth Cave ground
+__</t>
+  </si>
+  <si>
+    <t>-63f</t>
+  </si>
+  <si>
+    <t>Cavefish. Alabama</t>
+  </si>
+  <si>
+    <t>Gardenia. Hawaiian (na'ul</t>
+  </si>
+  <si>
+    <t>Harvestman, Bee Creek Cave</t>
+  </si>
+  <si>
+    <t>Pseudoscorpion, Tooth Cave
+_</t>
+  </si>
+  <si>
+    <t>.$266,976.16</t>
+  </si>
+  <si>
+    <t>Spider, Tooth Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Aiea (Nothocestri,m peltatum = Sci name)  </t>
+  </si>
+  <si>
+    <t>644
+.</t>
+  </si>
+  <si>
+    <t>'Akoko (Chamaesyce celastroides kaenana = Sci nam</t>
+  </si>
+  <si>
+    <t>.$266,994.36</t>
+  </si>
+  <si>
+    <t>'Akoko (Chamaesyce deppeana = Sci name)</t>
+  </si>
+  <si>
+    <t>'Akoko, Ewa Plains</t>
+  </si>
+  <si>
+    <t>Alani (Melicope balloui = Sci name)</t>
+  </si>
+  <si>
+    <t>Alani (Melicope oval's = Sci name)</t>
+  </si>
+  <si>
+    <t>Alani (Melicope pallida Sci name)
+_ _</t>
+  </si>
+  <si>
+    <t>Alsinidendron trinerve (=Sci name)</t>
+  </si>
+  <si>
+    <t>Amaranthus brownii (=Sci name)
+_</t>
+  </si>
+  <si>
+    <t>Asplenium fragile var. insulare (=Sci name)</t>
+  </si>
+  <si>
+    <t>Aupaka   _</t>
+  </si>
+  <si>
+    <t>'Awiwi (Hedyotis cookiana = Sci name)</t>
+  </si>
+  <si>
+    <t>Bat, Hawaiian hoary</t>
+  </si>
+  <si>
+    <t>Bat, little Mariana fruit</t>
+  </si>
+  <si>
+    <t>Bidens, cuneate</t>
+  </si>
+  <si>
+    <t>644.</t>
+  </si>
+  <si>
+    <t>Bluegrass. Hawaiian  
+__</t>
+  </si>
+  <si>
+    <t>.$267.078.36</t>
+  </si>
+  <si>
+    <t>Bluegrass, Mann's 
+_ _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaff-flower, round-leaved   </t>
+  </si>
+  <si>
+    <t>Chamaesyce halemanui (=Sci name)</t>
+  </si>
+  <si>
+    <t>Chumbo, higo</t>
+  </si>
+  <si>
+    <t>__
+Cyanea macrostegia ssp. gibsonii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Cyanea undulata (=Sci name)
+_</t>
+  </si>
+  <si>
+    <t>Diellia falcate (=Sci name)</t>
+  </si>
+  <si>
+    <t>Diellia pallida (=laciniata) (=Sci name)</t>
+  </si>
+  <si>
+    <t>$267,126.36
+.</t>
+  </si>
+  <si>
+    <t>Diellia unisora (=Sci name)</t>
+  </si>
+  <si>
+    <t>Diplazium molokaiense (=Sci name)____
+_</t>
+  </si>
+  <si>
+    <t>$267.138.36</t>
+  </si>
+  <si>
+    <t>Dubautia latifolia (=Sci name)</t>
+  </si>
+  <si>
+    <t>Dubautiapauciflorula (=Sci name)</t>
+  </si>
+  <si>
+    <t>644_</t>
+  </si>
+  <si>
+    <t>Gahnia lanaiensis =Sci name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouania hillebrandii (=Sci name) </t>
+  </si>
+  <si>
+    <t>$267.162.36</t>
+  </si>
+  <si>
+    <t>Gouania meyenii (=Sci name)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Gouania vitifolia (=Sci name)</t>
+  </si>
+  <si>
+    <t>Naha (Cyanea mceldowneyi = Sci name)</t>
+  </si>
+  <si>
+    <t>$267.180.36</t>
+  </si>
+  <si>
+    <t>HaTiwale (_C_yrtandragiffardii = Sci name)  
+_</t>
+  </si>
+  <si>
+    <t>Ha'iwale (Cyrtandra munroi = Sci name)</t>
+  </si>
+  <si>
+    <t>Heau</t>
+  </si>
+  <si>
+    <t>Hedyotis degeneri (=Sci name).</t>
+  </si>
+  <si>
+    <t>Hedyotis, Na Pali beach</t>
+  </si>
+  <si>
+    <t>Hesperomannia arbuscula (=Sci name)</t>
+  </si>
+  <si>
+    <t>Hesperomannia lydgatei (=Sci name)</t>
+  </si>
+  <si>
+    <t>Clay's
+_Hibiscus,</t>
+  </si>
+  <si>
+    <t>Mau, dwarf</t>
+  </si>
+  <si>
+    <t>Kaulu</t>
+  </si>
+  <si>
+    <t>Ko'oloa'ula</t>
+  </si>
+  <si>
+    <t>$267,246.36
+.</t>
+  </si>
+  <si>
+    <t>Lagu, Hyan</t>
+  </si>
+  <si>
+    <t>Lipochaeta_venosa (=Sci name)</t>
+  </si>
+  <si>
+    <t>99.75%
+.</t>
+  </si>
+  <si>
+    <t>Lobelia niihauensis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Ly_simachia filifolia (=Sci name)</t>
+  </si>
+  <si>
+    <t>Makou
+_</t>
+  </si>
+  <si>
+    <t>Ma'oli'oli</t>
+  </si>
+  <si>
+    <t>Milkpea, Small's</t>
+  </si>
+  <si>
+    <t>Munroidendron racemosum (=Sci name)</t>
+  </si>
+  <si>
+    <t>Nehe (Lipochaeta fauriei = Sci name)</t>
+  </si>
+  <si>
+    <t>Nehe (Lipochaeta kamolensis = Sci name)</t>
+  </si>
+  <si>
+    <t>Nehe (Lipochaeta micrantha = Sci name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nehe (Lipochaeta tenuifolia = Sci name)</t>
+  </si>
+  <si>
+    <t>Nehe (Lipochaeta waimaeansis = Sci name)</t>
+  </si>
+  <si>
+    <t>'Olulu</t>
+  </si>
+  <si>
+    <t>Opu e</t>
+  </si>
+  <si>
+    <t>Phacelia, North Park</t>
+  </si>
+  <si>
+    <t>Phyllostegia glabra var. lanaiensis (=Sci nam</t>
+  </si>
+  <si>
+    <t>Phyllostegia mollis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Phyllostegia waimeae (=Sci name)</t>
+  </si>
+  <si>
+    <t>Poa siphonoglossa (=Sci name)</t>
+  </si>
+  <si>
+    <t>Pritchardia remota (=Sci name)</t>
+  </si>
+  <si>
+    <t>Remya kauaiensis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Remya montgomeryi (=Sci name)</t>
+  </si>
+  <si>
+    <t>Sandalwood, Lanai or 'iliahi</t>
+  </si>
+  <si>
+    <t>Schiedea kaalae (=Sci name)</t>
+  </si>
+  <si>
+    <t>Schiedea spergulina var. leiopoda (=Sci name)</t>
+  </si>
+  <si>
+    <t>Schiedea spergulina var. spergulina (=Sci nam</t>
+  </si>
+  <si>
+    <t>Schiedea verticillata (=Sci name)</t>
+  </si>
+  <si>
+    <t>Schiedea, Diamond Head</t>
+  </si>
+  <si>
+    <t>Silene perlmanii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Spurge, deltoid</t>
+  </si>
+  <si>
+    <t>Spurge, Garber's</t>
+  </si>
+  <si>
+    <t>$267,438.36.</t>
+  </si>
+  <si>
+    <t>Stenogyne angustifolia (=Sci name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_$267,444.36 </t>
+  </si>
+  <si>
+    <t>Stenogyne campanulata (-7-Sci name)</t>
+  </si>
+  <si>
+    <t>_ $6.00</t>
+  </si>
+  <si>
+    <t>_U67,450.36</t>
+  </si>
+  <si>
+    <t>Tetramolopium lepidotum ssp. lepidotum (=Sci</t>
+  </si>
+  <si>
+    <t>Tetramolopium remyi (=Sci name)</t>
+  </si>
+  <si>
+    <t>Viola helenae (=Sci name)</t>
+  </si>
+  <si>
+    <t>Viola lanaiensis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Wahane (=Hawane or loulu)</t>
+  </si>
+  <si>
+    <t>Xylosma crenatum (=Sci name)</t>
+  </si>
+  <si>
+    <t>Beetle, Coffin Cave mold</t>
+  </si>
+  <si>
+    <t>Pearlymussel, white cat's paw__ _</t>
+  </si>
+  <si>
+    <t>Monkey-flower, Michigan</t>
+  </si>
+  <si>
+    <t>Dace, Kendall Warm Springs</t>
+  </si>
+  <si>
+    <t>Poppy-mallow, Texas</t>
+  </si>
+  <si>
+    <t>Pennyroyal, Todsen's</t>
+  </si>
+  <si>
+    <t>Quillwort, Louisiana</t>
+  </si>
+  <si>
+    <t>Shiner, Cahaba</t>
+  </si>
+  <si>
+    <t>Squirrel, Delmarva Peninsula fox</t>
+  </si>
+  <si>
+    <t>Reed-mustard, Barneby</t>
+  </si>
+  <si>
+    <t>Crayfish, cave [no common name; Cambarus zophona</t>
+  </si>
+  <si>
+    <t>Cactus, Cochise pincushion</t>
+  </si>
+  <si>
+    <t>Darter, snail</t>
+  </si>
+  <si>
+    <t>Blazingstar, Ash Meadows</t>
+  </si>
+  <si>
+    <t>Buckwheat, steamboat</t>
+  </si>
+  <si>
+    <t>Eugenia woodburyana (=Sci name)</t>
+  </si>
+  <si>
+    <t>Gesneria pauciflora (=Sci name)_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_$267,577.82 </t>
+  </si>
+  <si>
+    <t>_ 99.87%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumplant, Ash Meadows </t>
+  </si>
+  <si>
+    <t>Milk-vetch, Ash meadows</t>
+  </si>
+  <si>
+    <t>Milk-vetch, Osterhout</t>
+  </si>
+  <si>
+    <t>Mustard, Penland alpine fen</t>
+  </si>
+  <si>
+    <t>Niterwort, Amargosa</t>
+  </si>
+  <si>
+    <t>Pawpaw, four-petal</t>
+  </si>
+  <si>
+    <t>Pupfish, Warm Springs</t>
+  </si>
+  <si>
+    <t>Salamander, Red Hills</t>
+  </si>
+  <si>
+    <t>Spurge, telephus</t>
+  </si>
+  <si>
+    <t>_$267,622.82</t>
+  </si>
+  <si>
+    <t>Pearlymussel, Cumberland bean</t>
+  </si>
+  <si>
+    <t>Pitcher-plant, green</t>
+  </si>
+  <si>
+    <t>Buttercup, autumn</t>
+  </si>
+  <si>
+    <t>Phacelia, clay</t>
+  </si>
+  <si>
+    <t>$267,642.04 .</t>
+  </si>
+  <si>
+    <t>Cress, toad-flax</t>
+  </si>
+  <si>
+    <t>Primrose, Maguire</t>
+  </si>
+  <si>
+    <t>Reed-mustard, clay</t>
+  </si>
+  <si>
+    <t>Ridge-cress (=pepper-cress), Barneby</t>
+  </si>
+  <si>
+    <t>Cactus, star</t>
+  </si>
+  <si>
+    <t>Heartleaf, dwarf-flowered</t>
+  </si>
+  <si>
+    <t>Pigtoe, fine-rayed</t>
+  </si>
+  <si>
+    <t>Nightjar, Puerto Rican</t>
+  </si>
+  <si>
+    <t>Aristida chaseae (=Sci name)</t>
+  </si>
+  <si>
+    <t>Bladderpod, Dudley Bluffs</t>
+  </si>
+  <si>
+    <t>Boxwood, Vahl's</t>
+  </si>
+  <si>
+    <t>Butterwort, Godfrey's</t>
+  </si>
+  <si>
+    <t>Cactus, black lace</t>
+  </si>
+  <si>
+    <t>Chamaecrista glandulosa var. mirabilis (=Sci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.$267,701.58 </t>
+  </si>
+  <si>
+    <t>Coqui, golden</t>
+  </si>
+  <si>
+    <t>_ 766</t>
+  </si>
+  <si>
+    <t>Cranichis ricartill_=Sci name)</t>
+  </si>
+  <si>
+    <t>Goetzea, beautiful (matabuey)</t>
+  </si>
+  <si>
+    <t>Higuero de Sierra</t>
+  </si>
+  <si>
+    <t>.$267,717.58_</t>
+  </si>
+  <si>
+    <t>Manaca, palma de</t>
+  </si>
+  <si>
+    <t>Pelos del diablo</t>
+  </si>
+  <si>
+    <t>Twinpod, Dudley Bluffs</t>
+  </si>
+  <si>
+    <t>Pearlymussel, Curtis'</t>
+  </si>
+  <si>
+    <t>$267,733.47 .</t>
+  </si>
+  <si>
+    <t>Wild-buckwheat, gypsum</t>
+  </si>
+  <si>
+    <t>Cactus, Kuenzler hedgehog</t>
+  </si>
+  <si>
+    <t>.$267,740.87.</t>
+  </si>
+  <si>
+    <t>.Capa rosa</t>
+  </si>
+  <si>
+    <t>_ $3.60</t>
+  </si>
+  <si>
+    <t>7-83</t>
+  </si>
+  <si>
+    <t>Avens, spreading</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>:Chub, slender</t>
+  </si>
+  <si>
+    <t>Locoweed, Fassett's</t>
+  </si>
+  <si>
+    <t>Agave, Arizona</t>
+  </si>
+  <si>
+    <t>Snake, Concho water</t>
+  </si>
+  <si>
+    <t>Lampmussel, Alabama (=Pearly mussel, Alabama</t>
+  </si>
+  <si>
+    <t>$267,765.11 .</t>
+  </si>
+  <si>
+    <t>Pigtoe, shiny</t>
+  </si>
+  <si>
+    <t>Bat, Mexican long-nosed</t>
+  </si>
+  <si>
+    <t>Pearlymussel, cracking</t>
+  </si>
+  <si>
+    <t>792.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse, Key Largo cotton </t>
+  </si>
+  <si>
+    <t>Pitcher-plant, mountain sweet</t>
+  </si>
+  <si>
+    <t>Arrowhead, bunched</t>
+  </si>
+  <si>
+    <t>Blue-star, Kearney's</t>
+  </si>
+  <si>
+    <t>--
+Fern, Aleutian shield</t>
+  </si>
+  <si>
+    <t>Groundsel, San Francisco Peaks</t>
+  </si>
+  <si>
+    <t>Rabbit, Lower Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnallStuttenanao ovate amber </t>
+  </si>
+  <si>
+    <t>Ternstroemia subsessilis (Sci name)</t>
+  </si>
+  <si>
+    <t>Thistle, Sacramento Mountains</t>
+  </si>
+  <si>
+    <t>Campion, fringed</t>
+  </si>
+  <si>
+    <t>Goldenrod, white-haired</t>
+  </si>
+  <si>
+    <t>Ground-plum, Guthrie's</t>
+  </si>
+  <si>
+    <t>Crayfish, Nashville</t>
+  </si>
+  <si>
+    <t>Darter, Etowah</t>
+  </si>
+  <si>
+    <t>Sandwort, Cumberland</t>
+  </si>
+  <si>
+    <t>Pearlymussel, green-blossom</t>
+  </si>
+  <si>
+    <t>Pearlymussel, pale lilliput</t>
+  </si>
+  <si>
+    <t>Pearlymussel, dromedary</t>
+  </si>
+  <si>
+    <t>Rattleweed, hairy</t>
+  </si>
+  <si>
+    <t>.Madtom, Scioto</t>
+  </si>
+  <si>
+    <t>Quillwort, black spored</t>
+  </si>
+  <si>
+    <t>Aster, decurrent false</t>
+  </si>
+  <si>
+    <t>Joint-vetch, sensitive</t>
+  </si>
+  <si>
+    <t>Ziziphus, florida</t>
+  </si>
+  <si>
+    <t>Fern, American hart's-tongue</t>
+  </si>
+  <si>
+    <t>Anole, Culebra Island giant</t>
+  </si>
+  <si>
+    <t>Blazingstar, Heller's</t>
+  </si>
+  <si>
+    <t>Boa, Mona</t>
+  </si>
+  <si>
+    <t>Fleabane, Rhizome</t>
+  </si>
+  <si>
+    <t>Gooseberry, Miccosukee (Florida)</t>
+  </si>
+  <si>
+    <t>Holly, Cook's</t>
+  </si>
+  <si>
+    <t>Hex sintenisii (=Sci name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizard, St. Croix_ground </t>
+  </si>
+  <si>
+    <t>99.98°/a</t>
+  </si>
+  <si>
+    <t>-
+Palo de Ramon</t>
+  </si>
+  <si>
+    <t>----- -
+Rhododendron, Chapman</t>
+  </si>
+  <si>
+    <t>Snail, Stock Island tree</t>
+  </si>
+  <si>
+    <t>Snail, Virginia fringed mountain</t>
+  </si>
+  <si>
+    <t>Snowbells, Texas</t>
+  </si>
+  <si>
+    <t>Uvillo</t>
+  </si>
+  <si>
+    <t>Whitlow-wort, papery</t>
+  </si>
+  <si>
+    <t>Lily, Minnesota trout</t>
+  </si>
+  <si>
+    <t>Pigtoe, Cumberland (=Cumberland pigtoe mussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Button, Mohr's Barbara</t>
+  </si>
+  <si>
+    <t>836
+.</t>
+  </si>
+  <si>
+    <t>Crayfish, cave [no common name; Cambarus acularbr</t>
+  </si>
+  <si>
+    <t>Roseroot, Leedy's</t>
+  </si>
+  <si>
+    <t>Quillwort, mat-forming</t>
+  </si>
+  <si>
+    <t>Water-plantain, Kral's</t>
+  </si>
+  <si>
+    <t>Pearlymussel, turgid-blossom</t>
+  </si>
+  <si>
+    <t>Darter, bluemask (=jewel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pearlymussel, yellow-blossom</t>
+  </si>
+  <si>
+    <t>Warbler, Bachman's</t>
+  </si>
+  <si>
+    <t>844.</t>
+  </si>
+  <si>
+    <t>Madtom, pygmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pocketbook, speckled</t>
+  </si>
+  <si>
+    <t>Rosemary, Cumberland</t>
+  </si>
+  <si>
+    <t>Pearlymussel, Appalachian monkeyface</t>
+  </si>
+  <si>
+    <t>Pearlymussel, white wartyback</t>
+  </si>
+  <si>
+    <t>$267.897.93</t>
+  </si>
+  <si>
+    <t>Beaked-rush, Knieskern's</t>
+  </si>
+  <si>
+    <t>Lepanthes eltoroensis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Palo colorado</t>
+  </si>
+  <si>
+    <t>Palo de jazmin</t>
+  </si>
+  <si>
+    <t>Pearlymussel, tubercled-blossom</t>
+  </si>
+  <si>
+    <t>$267.903.43</t>
+  </si>
+  <si>
+    <t>Cinquefoil, Robbins'</t>
+  </si>
+  <si>
+    <t>_854_</t>
+  </si>
+  <si>
+    <t>Marstonialsnai9, royal (=obese)</t>
+  </si>
+  <si>
+    <t>$267,905.43  . .</t>
+  </si>
+  <si>
+    <t>Mint, Lakela's</t>
+  </si>
+  <si>
+    <t>Pinkroot, gentian</t>
+  </si>
+  <si>
+    <t>$267,907.43. _</t>
+  </si>
+  <si>
+    <t>854_</t>
+  </si>
+  <si>
+    <t>Rosemary, Apalachicola</t>
+  </si>
+  <si>
+    <t>$267,908,43</t>
+  </si>
+  <si>
+    <t>Skipper, Pawnee montane</t>
+  </si>
+  <si>
+    <t>Turtle, Plymouth redbelly (=red-bellied)</t>
+  </si>
+  <si>
+    <t>Lichen, rock gnome</t>
+  </si>
+  <si>
+    <t>$267,911.23
+.</t>
+  </si>
+  <si>
+    <t>Water-willow, Cooley's 
+__ _ _ _</t>
+  </si>
+  <si>
+    <t>.$267.912.03</t>
+  </si>
+  <si>
+    <t>Darter, relict</t>
+  </si>
+  <si>
+    <t>FPock-cress, shale barren</t>
+  </si>
+  <si>
+    <t>.$267,913.43.</t>
+  </si>
+  <si>
+    <t>Mallow, Peter's Mountain</t>
+  </si>
+  <si>
+    <t>Beetle, Hungerford's crawling water</t>
+  </si>
+  <si>
+    <t>Cactus, Lloyd's hecLgehog</t>
+  </si>
+  <si>
+    <t>Isopod, Lee County cave</t>
+  </si>
+  <si>
+    <t>Isopod, Madison Cave</t>
+  </si>
+  <si>
+    <t>$267,916.10
+. .</t>
+  </si>
+  <si>
+    <t>866_</t>
+  </si>
+  <si>
+    <t>Salamander, Shenandoah</t>
+  </si>
+  <si>
+    <t>Snail, flat-spired three-toothed</t>
+  </si>
+  <si>
+    <t>Cactus, Chisos Mtn. hedgehog</t>
+  </si>
+  <si>
+    <t>Coneflower, Tennessee purple</t>
+  </si>
+  <si>
+    <t>_ 872</t>
+  </si>
+  <si>
+    <t>Goldenrod, Short's</t>
+  </si>
+  <si>
+    <t>Oak, Hinckley</t>
+  </si>
+  <si>
+    <t>Curlew, Eskimo</t>
+  </si>
+  <si>
+    <t>Shagreen, Magazine Mountain</t>
+  </si>
+  <si>
+    <t>Fern, Alabama streak-sorus</t>
+  </si>
+  <si>
+    <t>_878</t>
+  </si>
+  <si>
+    <t>Rock-cress</t>
+  </si>
+  <si>
+    <t>Goldenrod, Blue Ridge</t>
+  </si>
+  <si>
+    <t>Cactus, Lloyd's Mariposa</t>
+  </si>
+  <si>
+    <t>Clubshell, black (=Curtus' mussel)</t>
+  </si>
+  <si>
+    <t>Combshell,_ southern (=penitent mussel)</t>
+  </si>
+  <si>
+    <t>$0.20 _</t>
+  </si>
+  <si>
+    <t>Milk-vetch, Jesup's</t>
+  </si>
+  <si>
+    <t>Pigtoe, flat (=Marshall's mussel)</t>
+  </si>
+  <si>
+    <t>Pigtoe, heavy (=Judge Tait's mussel)</t>
+  </si>
+  <si>
+    <t>$0.20 .</t>
+  </si>
+  <si>
+    <t>887 •</t>
+  </si>
+  <si>
+    <t>Leather flower, Morefield's</t>
+  </si>
+  <si>
+    <t>$0.17_</t>
+  </si>
+  <si>
+    <t>Snail, noonday</t>
+  </si>
+  <si>
+    <t>Bluet, Roan Mountain</t>
+  </si>
+  <si>
+    <t>Cougar, eastern</t>
+  </si>
+  <si>
+    <t>Irisette, white</t>
+  </si>
+  <si>
+    <t>Leather flower, Alabama</t>
+  </si>
+  <si>
+    <t>Spider, spruce-fir moss</t>
+  </si>
+  <si>
+    <t>Adiantum vivesii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Amphipod, Hay's Spring</t>
+  </si>
+  <si>
+    <t>Aster, Florida golden</t>
+  </si>
+  <si>
+    <t>Bariaco</t>
+  </si>
+  <si>
+    <t>Beardtongue, Penland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beargrass, Britton's   </t>
+  </si>
+  <si>
+    <t>Bellflower, Brooksville</t>
+  </si>
+  <si>
+    <t>Bittercress, small-anthered</t>
+  </si>
+  <si>
+    <t>Blazingstar, scrub</t>
+  </si>
+  <si>
+    <t>Bonamia, Florida</t>
+  </si>
+  <si>
+    <t>Buckwheat, scrub</t>
+  </si>
+  <si>
+    <t>Cactus, Key tree</t>
+  </si>
+  <si>
+    <t>Cactus, Nellie cory</t>
+  </si>
+  <si>
+    <t>Cars-eye, Terlingpa Creek</t>
+  </si>
+  <si>
+    <t>Chupacallos(=Chupagallo)___ _</t>
+  </si>
+  <si>
+    <t>$0:00</t>
+  </si>
+  <si>
+    <t>Crow, white-necked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darter, Maryland </t>
+  </si>
+  <si>
+    <t>-Eiaphoglossum serpens (=Sci name)</t>
+  </si>
+  <si>
+    <t>Erubia</t>
+  </si>
+  <si>
+    <t>Fern, Elfin tree</t>
+  </si>
+  <si>
+    <t>Gambusia, Clear Creek</t>
+  </si>
+  <si>
+    <t>Harebells, Avon Park</t>
+  </si>
+  <si>
+    <t>Heather, mountain golden</t>
+  </si>
+  <si>
+    <t>Hypericum, highlands scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivesia, Ash Meadows </t>
+  </si>
+  <si>
+    <t>Jacguemontia, beach</t>
+  </si>
+  <si>
+    <t>Lead-plant, Crenulate</t>
+  </si>
+  <si>
+    <t>Leptocereus wantianus (=Sci name)</t>
+  </si>
+  <si>
+    <t>Lousewort, Furbish</t>
+  </si>
+  <si>
+    <t>Lupine, scrub</t>
+  </si>
+  <si>
+    <t>Lyonia truncata var. proctorii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Mint, Garrettsi=scrub, in part)</t>
+  </si>
+  <si>
+    <t>Mint, longspurred</t>
+  </si>
+  <si>
+    <t>- 
+$267,922.21</t>
+  </si>
+  <si>
+    <t>Mint, scrub</t>
+  </si>
+  <si>
+    <t>$267,922.21 
+_ _</t>
+  </si>
+  <si>
+    <t>Mitracarpus maxwelliae (=Sci name)</t>
+  </si>
+  <si>
+    <t>Mitracarpus polycladus (=Sci name)</t>
+  </si>
+  <si>
+    <t>Mustard, Carter's</t>
+  </si>
+  <si>
+    <t>E..</t>
+  </si>
+  <si>
+    <t>Myrcia paganii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Negra, cobana</t>
+  </si>
+  <si>
+    <t>Pawpaw, beautiful</t>
+  </si>
+  <si>
+    <t>_Pawpaw, Rugers _.</t>
+  </si>
+  <si>
+    <t>Peperomia, Wheeler's</t>
+  </si>
+  <si>
+    <t>Pitaya, Davis' green</t>
+  </si>
+  <si>
+    <t>Plum, scrub</t>
+  </si>
+  <si>
+    <t>Polygala, Lewton's</t>
+  </si>
+  <si>
+    <t>Polygala, tiny</t>
+  </si>
+  <si>
+    <t>Polystichum calderonense (=Sol name)</t>
+  </si>
+  <si>
+    <t>Pondweed, Little Aguja Creek</t>
+  </si>
+  <si>
+    <t>_Prickly-apple, fragrant</t>
+  </si>
+  <si>
+    <t>•Rosa, palo de</t>
+  </si>
+  <si>
+    <t>•Rosemary, Etonia</t>
+  </si>
+  <si>
+    <t>$267,922.21
+.</t>
+  </si>
+  <si>
+    <t>•Rosemary, short-leaved</t>
+  </si>
+  <si>
+    <t>Sandlace</t>
+  </si>
+  <si>
+    <t>Schoepfia arenaria (=Sci name)</t>
+  </si>
+  <si>
+    <t>Seal, Caribbean monk</t>
+  </si>
+  <si>
+    <t>Shrimp, Kentucky cave</t>
+  </si>
+  <si>
+    <t>Snail, painted snake coiled forest</t>
+  </si>
+  <si>
+    <t>Snakeroot</t>
+  </si>
+  <si>
+    <t>Snake, Atlantic salt marsh</t>
+  </si>
+  <si>
+    <t>$267.922.21</t>
+  </si>
+  <si>
+    <t>Sunray, Ash Meadows</t>
+  </si>
+  <si>
+    <t>$267,922,21</t>
+  </si>
+  <si>
+    <t>Tectaria estremerana (=Sci name)</t>
+  </si>
+  <si>
+    <t>Thelypteris inabonensis (Sol name)</t>
+  </si>
+  <si>
+    <t>Thelypteris verecunda (=Sci name)</t>
+  </si>
+  <si>
+    <t>Thelypteris yaucoensis (=Sci name)</t>
+  </si>
+  <si>
+    <t>Tree, pygmy fringe</t>
+  </si>
+  <si>
+    <t>Vernonia proctorii (=Sci name)</t>
+  </si>
+  <si>
+    <t>Warea, wide-leaf</t>
+  </si>
+  <si>
+    <t>_Wings, Pigeon _</t>
+  </si>
+  <si>
+    <t>Wireweed ______</t>
+  </si>
+  <si>
+    <t>Woodpecker, ivory-billed</t>
+  </si>
+  <si>
+    <t>Woodrat, Rey Land</t>
   </si>
 </sst>
 </file>
@@ -2132,11 +3580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1FC5F3-7801-4B3A-8847-3199F77E1031}">
-  <dimension ref="A1:F569"/>
+  <dimension ref="A1:F966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A570" sqref="A570"/>
+      <pane ySplit="3" topLeftCell="A944" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F966" sqref="F966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13493,6 +14941,7838 @@
         <v>0.99450000000000005</v>
       </c>
     </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>567</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570" t="s">
+        <v>11</v>
+      </c>
+      <c r="D570" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E570" s="3">
+        <v>266444.18</v>
+      </c>
+      <c r="F570" s="5">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>567</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571" t="s">
+        <v>11</v>
+      </c>
+      <c r="D571" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E571" s="3">
+        <v>266452.68</v>
+      </c>
+      <c r="F571" s="5">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="C572" t="s">
+        <v>11</v>
+      </c>
+      <c r="D572" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E572" s="3">
+        <v>266461.05</v>
+      </c>
+      <c r="F572" s="5">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>570</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573" t="s">
+        <v>11</v>
+      </c>
+      <c r="D573" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E573" s="3">
+        <v>266469.42</v>
+      </c>
+      <c r="F573" s="5">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>570</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="C574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E574" s="3">
+        <v>266477.78999999998</v>
+      </c>
+      <c r="F574" s="5">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>580</v>
+      </c>
+      <c r="C575" t="s">
+        <v>11</v>
+      </c>
+      <c r="D575" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E575" s="3">
+        <v>266486.09000000003</v>
+      </c>
+      <c r="F575" s="5">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>573</v>
+      </c>
+      <c r="B576" t="s">
+        <v>581</v>
+      </c>
+      <c r="D576" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E576" s="3">
+        <v>266494.39</v>
+      </c>
+      <c r="F576" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>582</v>
+      </c>
+      <c r="C577" t="s">
+        <v>11</v>
+      </c>
+      <c r="D577" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="E577" s="3">
+        <v>266502.65000000002</v>
+      </c>
+      <c r="F577" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>583</v>
+      </c>
+      <c r="C578" t="s">
+        <v>11</v>
+      </c>
+      <c r="D578" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E578" s="3">
+        <v>266510.84999999998</v>
+      </c>
+      <c r="F578" s="5">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>576</v>
+      </c>
+      <c r="B579" t="s">
+        <v>584</v>
+      </c>
+      <c r="C579" t="s">
+        <v>11</v>
+      </c>
+      <c r="D579" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E579" s="3">
+        <v>266519.05</v>
+      </c>
+      <c r="F579" s="5">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>585</v>
+      </c>
+      <c r="C580" t="s">
+        <v>11</v>
+      </c>
+      <c r="D580" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="E580" s="3">
+        <v>266527.25</v>
+      </c>
+      <c r="F580" s="5">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>586</v>
+      </c>
+      <c r="C581" t="s">
+        <v>8</v>
+      </c>
+      <c r="D581" s="3">
+        <v>8.16</v>
+      </c>
+      <c r="E581" s="3">
+        <v>266535.40000000002</v>
+      </c>
+      <c r="F581" s="5">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>587</v>
+      </c>
+      <c r="C582" t="s">
+        <v>11</v>
+      </c>
+      <c r="D582" s="3">
+        <v>8</v>
+      </c>
+      <c r="E582" s="3">
+        <v>266543.40000000002</v>
+      </c>
+      <c r="F582" s="5">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>580</v>
+      </c>
+      <c r="B583" t="s">
+        <v>588</v>
+      </c>
+      <c r="C583" t="s">
+        <v>11</v>
+      </c>
+      <c r="D583" s="3">
+        <v>8</v>
+      </c>
+      <c r="E583" s="3">
+        <v>266551.40000000002</v>
+      </c>
+      <c r="F583" s="5">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>580</v>
+      </c>
+      <c r="B584" t="s">
+        <v>589</v>
+      </c>
+      <c r="C584" t="s">
+        <v>8</v>
+      </c>
+      <c r="D584" s="3">
+        <v>8</v>
+      </c>
+      <c r="E584" s="3">
+        <v>266559.40000000002</v>
+      </c>
+      <c r="F584" s="5">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>580</v>
+      </c>
+      <c r="B585" t="s">
+        <v>590</v>
+      </c>
+      <c r="C585" t="s">
+        <v>11</v>
+      </c>
+      <c r="D585" s="3">
+        <v>8</v>
+      </c>
+      <c r="E585" s="3">
+        <v>266567.40000000002</v>
+      </c>
+      <c r="F585" s="5">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>580</v>
+      </c>
+      <c r="B586" t="s">
+        <v>591</v>
+      </c>
+      <c r="C586" t="s">
+        <v>11</v>
+      </c>
+      <c r="D586" s="3">
+        <v>8</v>
+      </c>
+      <c r="E586" s="3">
+        <v>266575.40000000002</v>
+      </c>
+      <c r="F586" s="5">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>580</v>
+      </c>
+      <c r="B587" t="s">
+        <v>592</v>
+      </c>
+      <c r="C587" t="s">
+        <v>11</v>
+      </c>
+      <c r="D587" s="3">
+        <v>8</v>
+      </c>
+      <c r="E587" s="3">
+        <v>266583.40000000002</v>
+      </c>
+      <c r="F587" s="5">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>580</v>
+      </c>
+      <c r="B588" t="s">
+        <v>593</v>
+      </c>
+      <c r="C588" t="s">
+        <v>11</v>
+      </c>
+      <c r="D588" s="3">
+        <v>8</v>
+      </c>
+      <c r="E588" s="3">
+        <v>266591.40000000002</v>
+      </c>
+      <c r="F588" s="5">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>594</v>
+      </c>
+      <c r="C589" t="s">
+        <v>11</v>
+      </c>
+      <c r="D589" s="3">
+        <v>7.85</v>
+      </c>
+      <c r="E589" s="3">
+        <v>266599.25</v>
+      </c>
+      <c r="F589" s="5">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>595</v>
+      </c>
+      <c r="C590" t="s">
+        <v>11</v>
+      </c>
+      <c r="D590" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E590" s="3">
+        <v>266607.05</v>
+      </c>
+      <c r="F590" s="5">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>588</v>
+      </c>
+      <c r="B591" t="s">
+        <v>596</v>
+      </c>
+      <c r="C591" t="s">
+        <v>11</v>
+      </c>
+      <c r="D591" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E591" s="3">
+        <v>266614.84999999998</v>
+      </c>
+      <c r="F591" s="5">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>588</v>
+      </c>
+      <c r="B592" t="s">
+        <v>597</v>
+      </c>
+      <c r="C592" t="s">
+        <v>11</v>
+      </c>
+      <c r="D592" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E592" s="3">
+        <v>266622.65000000002</v>
+      </c>
+      <c r="F592" s="5">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>598</v>
+      </c>
+      <c r="C593" t="s">
+        <v>11</v>
+      </c>
+      <c r="D593" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E593" s="3">
+        <v>266630.25</v>
+      </c>
+      <c r="F593" s="5">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>599</v>
+      </c>
+      <c r="C594" t="s">
+        <v>11</v>
+      </c>
+      <c r="D594" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="E594" s="3">
+        <v>266637.8</v>
+      </c>
+      <c r="F594" s="5">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>600</v>
+      </c>
+      <c r="C595" t="s">
+        <v>8</v>
+      </c>
+      <c r="D595" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E595" s="3">
+        <v>266645.3</v>
+      </c>
+      <c r="F595" s="5">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>593</v>
+      </c>
+      <c r="B596" t="s">
+        <v>601</v>
+      </c>
+      <c r="C596" t="s">
+        <v>11</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E596" s="3">
+        <v>266652.79999999999</v>
+      </c>
+      <c r="F596" s="5">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>603</v>
+      </c>
+      <c r="C597" t="s">
+        <v>11</v>
+      </c>
+      <c r="D597" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E597" s="3">
+        <v>266660.09999999998</v>
+      </c>
+      <c r="F597" s="5">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>604</v>
+      </c>
+      <c r="C598" t="s">
+        <v>8</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F598" s="5">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>607</v>
+      </c>
+      <c r="C599" t="s">
+        <v>8</v>
+      </c>
+      <c r="D599" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F599" s="5">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>609</v>
+      </c>
+      <c r="C600" t="s">
+        <v>11</v>
+      </c>
+      <c r="D600" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E600" s="3">
+        <v>266681.77</v>
+      </c>
+      <c r="F600" s="5">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>610</v>
+      </c>
+      <c r="C601" t="s">
+        <v>11</v>
+      </c>
+      <c r="D601" s="3">
+        <v>7.16</v>
+      </c>
+      <c r="E601" s="3">
+        <v>266688.93</v>
+      </c>
+      <c r="F601" s="5">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>611</v>
+      </c>
+      <c r="C602" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602" s="3">
+        <v>7.04</v>
+      </c>
+      <c r="E602" s="3">
+        <v>266695.96999999997</v>
+      </c>
+      <c r="F602" s="5">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>612</v>
+      </c>
+      <c r="C603" t="s">
+        <v>11</v>
+      </c>
+      <c r="D603" s="3">
+        <v>7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F603" s="5">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>601</v>
+      </c>
+      <c r="B604" t="s">
+        <v>614</v>
+      </c>
+      <c r="C604" t="s">
+        <v>8</v>
+      </c>
+      <c r="D604" s="3">
+        <v>7</v>
+      </c>
+      <c r="E604" s="3">
+        <v>266709.96999999997</v>
+      </c>
+      <c r="F604" s="5">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>601</v>
+      </c>
+      <c r="B605" t="s">
+        <v>615</v>
+      </c>
+      <c r="C605" t="s">
+        <v>11</v>
+      </c>
+      <c r="D605" s="3">
+        <v>7</v>
+      </c>
+      <c r="E605" s="3">
+        <v>266716.96999999997</v>
+      </c>
+      <c r="F605" s="5">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>601</v>
+      </c>
+      <c r="B606" t="s">
+        <v>616</v>
+      </c>
+      <c r="C606" t="s">
+        <v>11</v>
+      </c>
+      <c r="D606" s="3">
+        <v>7</v>
+      </c>
+      <c r="E606" s="3">
+        <v>266723.96999999997</v>
+      </c>
+      <c r="F606" s="5">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>601</v>
+      </c>
+      <c r="B607" t="s">
+        <v>617</v>
+      </c>
+      <c r="C607" t="s">
+        <v>11</v>
+      </c>
+      <c r="D607" s="3">
+        <v>7</v>
+      </c>
+      <c r="E607" s="3">
+        <v>266730.96999999997</v>
+      </c>
+      <c r="F607" s="5">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>618</v>
+      </c>
+      <c r="B608" t="s">
+        <v>619</v>
+      </c>
+      <c r="C608" t="s">
+        <v>11</v>
+      </c>
+      <c r="D608" s="3">
+        <v>7</v>
+      </c>
+      <c r="E608" s="3">
+        <v>266737.96999999997</v>
+      </c>
+      <c r="F608" s="5">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>601</v>
+      </c>
+      <c r="B609" t="s">
+        <v>620</v>
+      </c>
+      <c r="C609" t="s">
+        <v>8</v>
+      </c>
+      <c r="D609" s="3">
+        <v>7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F609" s="5">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>601</v>
+      </c>
+      <c r="B610" t="s">
+        <v>622</v>
+      </c>
+      <c r="C610" t="s">
+        <v>11</v>
+      </c>
+      <c r="D610" s="3">
+        <v>7</v>
+      </c>
+      <c r="E610" s="3">
+        <v>266751.96999999997</v>
+      </c>
+      <c r="F610" s="5">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>601</v>
+      </c>
+      <c r="B611" t="s">
+        <v>623</v>
+      </c>
+      <c r="C611" t="s">
+        <v>11</v>
+      </c>
+      <c r="D611" s="3">
+        <v>7</v>
+      </c>
+      <c r="E611" s="3">
+        <v>266758.96999999997</v>
+      </c>
+      <c r="F611" s="5">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>601</v>
+      </c>
+      <c r="B612" t="s">
+        <v>624</v>
+      </c>
+      <c r="C612" t="s">
+        <v>11</v>
+      </c>
+      <c r="D612" s="3">
+        <v>7</v>
+      </c>
+      <c r="E612" s="3">
+        <v>266765.96999999997</v>
+      </c>
+      <c r="F612" s="5">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>601</v>
+      </c>
+      <c r="B613" t="s">
+        <v>625</v>
+      </c>
+      <c r="C613" t="s">
+        <v>11</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E613" s="3">
+        <v>266772.96999999997</v>
+      </c>
+      <c r="F613" s="5">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>601</v>
+      </c>
+      <c r="B614" t="s">
+        <v>627</v>
+      </c>
+      <c r="C614" t="s">
+        <v>11</v>
+      </c>
+      <c r="D614" s="3">
+        <v>7</v>
+      </c>
+      <c r="E614" s="3">
+        <v>266779.96999999997</v>
+      </c>
+      <c r="F614" s="5">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>601</v>
+      </c>
+      <c r="B615" t="s">
+        <v>628</v>
+      </c>
+      <c r="C615" t="s">
+        <v>11</v>
+      </c>
+      <c r="D615" s="3">
+        <v>7</v>
+      </c>
+      <c r="E615" s="3">
+        <v>266786.96999999997</v>
+      </c>
+      <c r="F615" s="5">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>601</v>
+      </c>
+      <c r="B616" t="s">
+        <v>629</v>
+      </c>
+      <c r="C616" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" s="3">
+        <v>7</v>
+      </c>
+      <c r="E616" s="3">
+        <v>266793.96999999997</v>
+      </c>
+      <c r="F616" s="5">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>601</v>
+      </c>
+      <c r="B617" t="s">
+        <v>630</v>
+      </c>
+      <c r="C617" t="s">
+        <v>11</v>
+      </c>
+      <c r="D617" s="3">
+        <v>7</v>
+      </c>
+      <c r="E617" s="3">
+        <v>266800.96999999997</v>
+      </c>
+      <c r="F617" s="5">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>631</v>
+      </c>
+      <c r="C618" t="s">
+        <v>11</v>
+      </c>
+      <c r="D618" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="E618" s="3">
+        <v>266807.87</v>
+      </c>
+      <c r="F618" s="5">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619" t="s">
+        <v>632</v>
+      </c>
+      <c r="C619" t="s">
+        <v>11</v>
+      </c>
+      <c r="D619" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="E619" s="3">
+        <v>266814.67</v>
+      </c>
+      <c r="F619" s="5">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>617</v>
+      </c>
+      <c r="B620" t="s">
+        <v>633</v>
+      </c>
+      <c r="C620" t="s">
+        <v>11</v>
+      </c>
+      <c r="D620" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="E620" s="3">
+        <v>266821.46999999997</v>
+      </c>
+      <c r="F620" s="5">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621" t="s">
+        <v>634</v>
+      </c>
+      <c r="C621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D621" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="E621" s="3">
+        <v>266828.23</v>
+      </c>
+      <c r="F621" s="5">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>635</v>
+      </c>
+      <c r="C622" t="s">
+        <v>11</v>
+      </c>
+      <c r="D622" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="E622" s="3">
+        <v>266835</v>
+      </c>
+      <c r="F622" s="5">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>636</v>
+      </c>
+      <c r="C623" t="s">
+        <v>11</v>
+      </c>
+      <c r="D623" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="E623" s="3">
+        <v>266841.7</v>
+      </c>
+      <c r="F623" s="5">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>621</v>
+      </c>
+      <c r="B624" t="s">
+        <v>637</v>
+      </c>
+      <c r="C624" t="s">
+        <v>11</v>
+      </c>
+      <c r="D624" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="E624" s="3">
+        <v>266848.40000000002</v>
+      </c>
+      <c r="F624" s="5">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>638</v>
+      </c>
+      <c r="C625" t="s">
+        <v>11</v>
+      </c>
+      <c r="D625" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="E625" s="3">
+        <v>266855</v>
+      </c>
+      <c r="F625" s="5">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>623</v>
+      </c>
+      <c r="B626" t="s">
+        <v>639</v>
+      </c>
+      <c r="C626" t="s">
+        <v>11</v>
+      </c>
+      <c r="D626" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="E626" s="3">
+        <v>266861.59999999998</v>
+      </c>
+      <c r="F626" s="5">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627" t="s">
+        <v>640</v>
+      </c>
+      <c r="C627" t="s">
+        <v>11</v>
+      </c>
+      <c r="D627" s="3">
+        <v>6.56</v>
+      </c>
+      <c r="E627" s="3">
+        <v>266868.15999999997</v>
+      </c>
+      <c r="F627" s="5">
+        <v>0.99609999999999999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628" t="s">
+        <v>641</v>
+      </c>
+      <c r="C628" t="s">
+        <v>11</v>
+      </c>
+      <c r="D628" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E628" s="3">
+        <v>266874.65999999997</v>
+      </c>
+      <c r="F628" s="5">
+        <v>0.99609999999999999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>626</v>
+      </c>
+      <c r="B629" t="s">
+        <v>642</v>
+      </c>
+      <c r="C629" t="s">
+        <v>11</v>
+      </c>
+      <c r="D629" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E629" s="3">
+        <v>266881.15999999997</v>
+      </c>
+      <c r="F629" s="5">
+        <v>0.99609999999999999</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>626</v>
+      </c>
+      <c r="B630" t="s">
+        <v>643</v>
+      </c>
+      <c r="C630" t="s">
+        <v>11</v>
+      </c>
+      <c r="D630" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E630" s="3">
+        <v>266887.65999999997</v>
+      </c>
+      <c r="F630" s="5">
+        <v>0.99609999999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>626</v>
+      </c>
+      <c r="B631" t="s">
+        <v>644</v>
+      </c>
+      <c r="C631" t="s">
+        <v>11</v>
+      </c>
+      <c r="D631" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E631" s="3">
+        <v>266894.15999999997</v>
+      </c>
+      <c r="F631" s="5">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>626</v>
+      </c>
+      <c r="B632" t="s">
+        <v>645</v>
+      </c>
+      <c r="C632" t="s">
+        <v>11</v>
+      </c>
+      <c r="D632" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E632" s="3">
+        <v>266900.65999999997</v>
+      </c>
+      <c r="F632" s="5">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>626</v>
+      </c>
+      <c r="B633" t="s">
+        <v>646</v>
+      </c>
+      <c r="C633" t="s">
+        <v>11</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E633" s="3">
+        <v>266907.15999999997</v>
+      </c>
+      <c r="F633" s="5">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>648</v>
+      </c>
+      <c r="B634" t="s">
+        <v>649</v>
+      </c>
+      <c r="C634" t="s">
+        <v>11</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F634" s="5">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>632</v>
+      </c>
+      <c r="B635" t="s">
+        <v>652</v>
+      </c>
+      <c r="C635" t="s">
+        <v>8</v>
+      </c>
+      <c r="D635" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E635" s="3">
+        <v>266919.96000000002</v>
+      </c>
+      <c r="F635" s="5">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636" t="s">
+        <v>653</v>
+      </c>
+      <c r="D636" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="E636" s="3">
+        <v>266926.31</v>
+      </c>
+      <c r="F636" s="5">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>634</v>
+      </c>
+      <c r="B637" t="s">
+        <v>654</v>
+      </c>
+      <c r="C637" t="s">
+        <v>8</v>
+      </c>
+      <c r="D637" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="E637" s="3">
+        <v>266932.65999999997</v>
+      </c>
+      <c r="F637" s="5">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="B638" t="s">
+        <v>655</v>
+      </c>
+      <c r="C638" t="s">
+        <v>11</v>
+      </c>
+      <c r="D638" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E638" s="3">
+        <v>266938.96000000002</v>
+      </c>
+      <c r="F638" s="5">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639" t="s">
+        <v>656</v>
+      </c>
+      <c r="C639" t="s">
+        <v>11</v>
+      </c>
+      <c r="D639" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F639" s="5">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>637</v>
+      </c>
+      <c r="B640" t="s">
+        <v>658</v>
+      </c>
+      <c r="D640" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E640" s="3">
+        <v>266951.36</v>
+      </c>
+      <c r="F640" s="5">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>659</v>
+      </c>
+      <c r="B641" t="s">
+        <v>660</v>
+      </c>
+      <c r="D641" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E641" s="3">
+        <v>266957.56</v>
+      </c>
+      <c r="F641" s="5">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>637</v>
+      </c>
+      <c r="B642" t="s">
+        <v>661</v>
+      </c>
+      <c r="C642" t="s">
+        <v>11</v>
+      </c>
+      <c r="D642" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E642" s="3">
+        <v>266963.76</v>
+      </c>
+      <c r="F642" s="5">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>637</v>
+      </c>
+      <c r="B643" t="s">
+        <v>662</v>
+      </c>
+      <c r="C643" t="s">
+        <v>11</v>
+      </c>
+      <c r="D643" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E643" s="3">
+        <v>266969.96000000002</v>
+      </c>
+      <c r="F643" s="5">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>637</v>
+      </c>
+      <c r="B644" t="s">
+        <v>663</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F644" s="5">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>637</v>
+      </c>
+      <c r="B645" t="s">
+        <v>665</v>
+      </c>
+      <c r="C645" t="s">
+        <v>11</v>
+      </c>
+      <c r="D645" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E645" s="3">
+        <v>266982.36</v>
+      </c>
+      <c r="F645" s="5">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646" t="s">
+        <v>666</v>
+      </c>
+      <c r="C646" t="s">
+        <v>11</v>
+      </c>
+      <c r="D646" s="3">
+        <v>6</v>
+      </c>
+      <c r="E646" s="3">
+        <v>266988.36</v>
+      </c>
+      <c r="F646" s="5">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>667</v>
+      </c>
+      <c r="B647" t="s">
+        <v>668</v>
+      </c>
+      <c r="C647" t="s">
+        <v>11</v>
+      </c>
+      <c r="D647" s="3">
+        <v>6</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F647" s="5">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>644</v>
+      </c>
+      <c r="B648" t="s">
+        <v>670</v>
+      </c>
+      <c r="C648" t="s">
+        <v>11</v>
+      </c>
+      <c r="D648" s="3">
+        <v>6</v>
+      </c>
+      <c r="E648" s="3">
+        <v>267000.36</v>
+      </c>
+      <c r="F648" s="5">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>644</v>
+      </c>
+      <c r="B649" t="s">
+        <v>671</v>
+      </c>
+      <c r="C649" t="s">
+        <v>11</v>
+      </c>
+      <c r="D649" s="3">
+        <v>6</v>
+      </c>
+      <c r="E649" s="3">
+        <v>267006.36</v>
+      </c>
+      <c r="F649" s="5">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>644</v>
+      </c>
+      <c r="B650" t="s">
+        <v>672</v>
+      </c>
+      <c r="C650" t="s">
+        <v>11</v>
+      </c>
+      <c r="D650" s="3">
+        <v>6</v>
+      </c>
+      <c r="E650" s="3">
+        <v>267012.36</v>
+      </c>
+      <c r="F650" s="5">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>644</v>
+      </c>
+      <c r="B651" t="s">
+        <v>673</v>
+      </c>
+      <c r="C651" t="s">
+        <v>11</v>
+      </c>
+      <c r="D651" s="3">
+        <v>6</v>
+      </c>
+      <c r="E651" s="3">
+        <v>267018.36</v>
+      </c>
+      <c r="F651" s="5">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>644</v>
+      </c>
+      <c r="B652" t="s">
+        <v>674</v>
+      </c>
+      <c r="C652" t="s">
+        <v>11</v>
+      </c>
+      <c r="D652" s="3">
+        <v>6</v>
+      </c>
+      <c r="E652" s="3">
+        <v>267024.36</v>
+      </c>
+      <c r="F652" s="5">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>644</v>
+      </c>
+      <c r="B653" t="s">
+        <v>675</v>
+      </c>
+      <c r="C653" t="s">
+        <v>11</v>
+      </c>
+      <c r="D653" s="3">
+        <v>6</v>
+      </c>
+      <c r="E653" s="3">
+        <v>267030.36</v>
+      </c>
+      <c r="F653" s="5">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>644</v>
+      </c>
+      <c r="B654" t="s">
+        <v>676</v>
+      </c>
+      <c r="C654" t="s">
+        <v>11</v>
+      </c>
+      <c r="D654" s="3">
+        <v>6</v>
+      </c>
+      <c r="E654" s="3">
+        <v>267036.36</v>
+      </c>
+      <c r="F654" s="5">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>644</v>
+      </c>
+      <c r="B655" t="s">
+        <v>677</v>
+      </c>
+      <c r="C655" t="s">
+        <v>11</v>
+      </c>
+      <c r="D655" s="3">
+        <v>6</v>
+      </c>
+      <c r="E655" s="3">
+        <v>267042.36</v>
+      </c>
+      <c r="F655" s="5">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>667</v>
+      </c>
+      <c r="B656" t="s">
+        <v>678</v>
+      </c>
+      <c r="C656" t="s">
+        <v>11</v>
+      </c>
+      <c r="D656" s="3">
+        <v>6</v>
+      </c>
+      <c r="E656" s="3">
+        <v>267048.36</v>
+      </c>
+      <c r="F656" s="5">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>644</v>
+      </c>
+      <c r="B657" t="s">
+        <v>679</v>
+      </c>
+      <c r="C657" t="s">
+        <v>11</v>
+      </c>
+      <c r="D657" s="3">
+        <v>6</v>
+      </c>
+      <c r="E657" s="3">
+        <v>267054.36</v>
+      </c>
+      <c r="F657" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>644</v>
+      </c>
+      <c r="B658" t="s">
+        <v>680</v>
+      </c>
+      <c r="C658" t="s">
+        <v>11</v>
+      </c>
+      <c r="D658" s="3">
+        <v>6</v>
+      </c>
+      <c r="E658" s="3">
+        <v>267060.36</v>
+      </c>
+      <c r="F658" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>644</v>
+      </c>
+      <c r="B659" t="s">
+        <v>681</v>
+      </c>
+      <c r="C659" t="s">
+        <v>11</v>
+      </c>
+      <c r="D659" s="3">
+        <v>6</v>
+      </c>
+      <c r="E659" s="3">
+        <v>267066.36</v>
+      </c>
+      <c r="F659" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>644</v>
+      </c>
+      <c r="B660" t="s">
+        <v>682</v>
+      </c>
+      <c r="C660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D660" s="3">
+        <v>6</v>
+      </c>
+      <c r="E660" s="3">
+        <v>267072.36</v>
+      </c>
+      <c r="F660" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>683</v>
+      </c>
+      <c r="B661" t="s">
+        <v>684</v>
+      </c>
+      <c r="C661" t="s">
+        <v>11</v>
+      </c>
+      <c r="D661" s="3">
+        <v>6</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F661" s="5">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>644</v>
+      </c>
+      <c r="B662" t="s">
+        <v>686</v>
+      </c>
+      <c r="C662" t="s">
+        <v>11</v>
+      </c>
+      <c r="D662" s="3">
+        <v>6</v>
+      </c>
+      <c r="E662" s="3">
+        <v>267084.36</v>
+      </c>
+      <c r="F662" s="5">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>644</v>
+      </c>
+      <c r="B663" t="s">
+        <v>687</v>
+      </c>
+      <c r="D663" s="3">
+        <v>6</v>
+      </c>
+      <c r="E663" s="3">
+        <v>267090.36</v>
+      </c>
+      <c r="F663" s="5">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>644</v>
+      </c>
+      <c r="B664" t="s">
+        <v>688</v>
+      </c>
+      <c r="D664" s="3">
+        <v>6</v>
+      </c>
+      <c r="E664" s="3">
+        <v>267096.36</v>
+      </c>
+      <c r="F664" s="5">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>644</v>
+      </c>
+      <c r="B665" t="s">
+        <v>689</v>
+      </c>
+      <c r="C665" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" s="3">
+        <v>6</v>
+      </c>
+      <c r="E665" s="3">
+        <v>267102.36</v>
+      </c>
+      <c r="F665" s="5">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>644</v>
+      </c>
+      <c r="B666" t="s">
+        <v>690</v>
+      </c>
+      <c r="C666" t="s">
+        <v>11</v>
+      </c>
+      <c r="D666" s="3">
+        <v>6</v>
+      </c>
+      <c r="E666" s="3">
+        <v>267108.36</v>
+      </c>
+      <c r="F666" s="5">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>644</v>
+      </c>
+      <c r="B667" t="s">
+        <v>691</v>
+      </c>
+      <c r="D667" s="3">
+        <v>6</v>
+      </c>
+      <c r="E667" s="3">
+        <v>267114.36</v>
+      </c>
+      <c r="F667" s="5">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>644</v>
+      </c>
+      <c r="B668" t="s">
+        <v>692</v>
+      </c>
+      <c r="C668" t="s">
+        <v>11</v>
+      </c>
+      <c r="D668" s="3">
+        <v>6</v>
+      </c>
+      <c r="E668" s="3">
+        <v>267120.36</v>
+      </c>
+      <c r="F668" s="5">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>644</v>
+      </c>
+      <c r="B669" t="s">
+        <v>693</v>
+      </c>
+      <c r="C669" t="s">
+        <v>11</v>
+      </c>
+      <c r="D669" s="3">
+        <v>6</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F669" s="5">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>644</v>
+      </c>
+      <c r="B670" t="s">
+        <v>695</v>
+      </c>
+      <c r="C670" t="s">
+        <v>11</v>
+      </c>
+      <c r="D670" s="3">
+        <v>6</v>
+      </c>
+      <c r="E670" s="3">
+        <v>267132.36</v>
+      </c>
+      <c r="F670" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>644</v>
+      </c>
+      <c r="B671" t="s">
+        <v>696</v>
+      </c>
+      <c r="C671" t="s">
+        <v>11</v>
+      </c>
+      <c r="D671" s="3">
+        <v>6</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F671" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>644</v>
+      </c>
+      <c r="B672" t="s">
+        <v>698</v>
+      </c>
+      <c r="D672" s="3">
+        <v>6</v>
+      </c>
+      <c r="E672" s="3">
+        <v>267144.36</v>
+      </c>
+      <c r="F672" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>644</v>
+      </c>
+      <c r="B673" t="s">
+        <v>699</v>
+      </c>
+      <c r="C673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D673" s="3">
+        <v>6</v>
+      </c>
+      <c r="E673" s="3">
+        <v>267150.36</v>
+      </c>
+      <c r="F673" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>700</v>
+      </c>
+      <c r="B674" t="s">
+        <v>701</v>
+      </c>
+      <c r="C674" t="s">
+        <v>11</v>
+      </c>
+      <c r="D674" s="3">
+        <v>6</v>
+      </c>
+      <c r="E674" s="3">
+        <v>267156.36</v>
+      </c>
+      <c r="F674" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>644</v>
+      </c>
+      <c r="B675" t="s">
+        <v>702</v>
+      </c>
+      <c r="D675" s="3">
+        <v>6</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F675" s="5">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>644</v>
+      </c>
+      <c r="B676" t="s">
+        <v>704</v>
+      </c>
+      <c r="D676" s="3">
+        <v>6</v>
+      </c>
+      <c r="E676" s="3">
+        <v>267168.36</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>644</v>
+      </c>
+      <c r="B677" t="s">
+        <v>706</v>
+      </c>
+      <c r="C677" t="s">
+        <v>11</v>
+      </c>
+      <c r="D677" s="3">
+        <v>6</v>
+      </c>
+      <c r="E677" s="3">
+        <v>267174.36</v>
+      </c>
+      <c r="F677" s="5">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>644</v>
+      </c>
+      <c r="B678" t="s">
+        <v>707</v>
+      </c>
+      <c r="C678" t="s">
+        <v>11</v>
+      </c>
+      <c r="D678" s="3">
+        <v>6</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F678" s="5">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>644</v>
+      </c>
+      <c r="B679" t="s">
+        <v>709</v>
+      </c>
+      <c r="C679" t="s">
+        <v>11</v>
+      </c>
+      <c r="D679" s="3">
+        <v>6</v>
+      </c>
+      <c r="E679" s="3">
+        <v>267186.36</v>
+      </c>
+      <c r="F679" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>644</v>
+      </c>
+      <c r="B680" t="s">
+        <v>710</v>
+      </c>
+      <c r="D680" s="3">
+        <v>6</v>
+      </c>
+      <c r="E680" s="3">
+        <v>267192.36</v>
+      </c>
+      <c r="F680" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>644</v>
+      </c>
+      <c r="B681" t="s">
+        <v>711</v>
+      </c>
+      <c r="C681" t="s">
+        <v>11</v>
+      </c>
+      <c r="D681" s="3">
+        <v>6</v>
+      </c>
+      <c r="E681" s="3">
+        <v>267198.36</v>
+      </c>
+      <c r="F681" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>644</v>
+      </c>
+      <c r="B682" t="s">
+        <v>712</v>
+      </c>
+      <c r="C682" t="s">
+        <v>11</v>
+      </c>
+      <c r="D682" s="3">
+        <v>6</v>
+      </c>
+      <c r="E682" s="3">
+        <v>267204.36</v>
+      </c>
+      <c r="F682" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>644</v>
+      </c>
+      <c r="B683" t="s">
+        <v>713</v>
+      </c>
+      <c r="C683" t="s">
+        <v>11</v>
+      </c>
+      <c r="D683" s="3">
+        <v>6</v>
+      </c>
+      <c r="E683" s="3">
+        <v>267210.36</v>
+      </c>
+      <c r="F683" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>644</v>
+      </c>
+      <c r="B684" t="s">
+        <v>714</v>
+      </c>
+      <c r="C684" t="s">
+        <v>11</v>
+      </c>
+      <c r="D684" s="3">
+        <v>6</v>
+      </c>
+      <c r="E684" s="3">
+        <v>267216.36</v>
+      </c>
+      <c r="F684" s="5">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>644</v>
+      </c>
+      <c r="B685" t="s">
+        <v>715</v>
+      </c>
+      <c r="C685" t="s">
+        <v>11</v>
+      </c>
+      <c r="D685" s="3">
+        <v>6</v>
+      </c>
+      <c r="E685" s="3">
+        <v>267222.36</v>
+      </c>
+      <c r="F685" s="5">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>644</v>
+      </c>
+      <c r="B686" t="s">
+        <v>716</v>
+      </c>
+      <c r="C686" t="s">
+        <v>11</v>
+      </c>
+      <c r="D686" s="3">
+        <v>6</v>
+      </c>
+      <c r="E686" s="3">
+        <v>267228.36</v>
+      </c>
+      <c r="F686" s="5">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>644</v>
+      </c>
+      <c r="B687" t="s">
+        <v>717</v>
+      </c>
+      <c r="C687" t="s">
+        <v>11</v>
+      </c>
+      <c r="D687" s="3">
+        <v>6</v>
+      </c>
+      <c r="E687" s="3">
+        <v>267234.36</v>
+      </c>
+      <c r="F687" s="5">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>644</v>
+      </c>
+      <c r="B688" t="s">
+        <v>718</v>
+      </c>
+      <c r="C688" t="s">
+        <v>11</v>
+      </c>
+      <c r="D688" s="3">
+        <v>6</v>
+      </c>
+      <c r="E688" s="3">
+        <v>267240.36</v>
+      </c>
+      <c r="F688" s="5">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>644</v>
+      </c>
+      <c r="B689" t="s">
+        <v>719</v>
+      </c>
+      <c r="C689" t="s">
+        <v>11</v>
+      </c>
+      <c r="D689" s="3">
+        <v>6</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F689" s="5">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>644</v>
+      </c>
+      <c r="B690" t="s">
+        <v>721</v>
+      </c>
+      <c r="C690" t="s">
+        <v>11</v>
+      </c>
+      <c r="D690" s="3">
+        <v>6</v>
+      </c>
+      <c r="E690" s="3">
+        <v>267252.36</v>
+      </c>
+      <c r="F690" s="5">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>644</v>
+      </c>
+      <c r="B691" t="s">
+        <v>722</v>
+      </c>
+      <c r="D691" s="3">
+        <v>6</v>
+      </c>
+      <c r="E691" s="3">
+        <v>267258.36</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>644</v>
+      </c>
+      <c r="B692" t="s">
+        <v>724</v>
+      </c>
+      <c r="D692" s="3">
+        <v>6</v>
+      </c>
+      <c r="E692" s="3">
+        <v>267264.36</v>
+      </c>
+      <c r="F692" s="5">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>644</v>
+      </c>
+      <c r="B693" t="s">
+        <v>725</v>
+      </c>
+      <c r="C693" t="s">
+        <v>11</v>
+      </c>
+      <c r="D693" s="3">
+        <v>6</v>
+      </c>
+      <c r="E693" s="3">
+        <v>267270.36</v>
+      </c>
+      <c r="F693" s="5">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>644</v>
+      </c>
+      <c r="B694" t="s">
+        <v>726</v>
+      </c>
+      <c r="C694" t="s">
+        <v>8</v>
+      </c>
+      <c r="D694" s="3">
+        <v>6</v>
+      </c>
+      <c r="E694" s="3">
+        <v>267276.36</v>
+      </c>
+      <c r="F694" s="5">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>644</v>
+      </c>
+      <c r="B695" t="s">
+        <v>727</v>
+      </c>
+      <c r="C695" t="s">
+        <v>11</v>
+      </c>
+      <c r="D695" s="3">
+        <v>6</v>
+      </c>
+      <c r="E695" s="3">
+        <v>267282.36</v>
+      </c>
+      <c r="F695" s="5">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>644</v>
+      </c>
+      <c r="B696" t="s">
+        <v>728</v>
+      </c>
+      <c r="C696" t="s">
+        <v>11</v>
+      </c>
+      <c r="D696" s="3">
+        <v>6</v>
+      </c>
+      <c r="E696" s="3">
+        <v>267288.36</v>
+      </c>
+      <c r="F696" s="5">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>644</v>
+      </c>
+      <c r="B697" t="s">
+        <v>729</v>
+      </c>
+      <c r="C697" t="s">
+        <v>11</v>
+      </c>
+      <c r="D697" s="3">
+        <v>6</v>
+      </c>
+      <c r="E697" s="3">
+        <v>267294.36</v>
+      </c>
+      <c r="F697" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>644</v>
+      </c>
+      <c r="B698" t="s">
+        <v>730</v>
+      </c>
+      <c r="C698" t="s">
+        <v>11</v>
+      </c>
+      <c r="D698" s="3">
+        <v>6</v>
+      </c>
+      <c r="E698" s="3">
+        <v>267300.36</v>
+      </c>
+      <c r="F698" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>644</v>
+      </c>
+      <c r="B699" t="s">
+        <v>731</v>
+      </c>
+      <c r="C699" t="s">
+        <v>11</v>
+      </c>
+      <c r="D699" s="3">
+        <v>6</v>
+      </c>
+      <c r="E699" s="3">
+        <v>267306.36</v>
+      </c>
+      <c r="F699" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>644</v>
+      </c>
+      <c r="B700" t="s">
+        <v>732</v>
+      </c>
+      <c r="C700" t="s">
+        <v>11</v>
+      </c>
+      <c r="D700" s="3">
+        <v>6</v>
+      </c>
+      <c r="E700" s="3">
+        <v>267312.36</v>
+      </c>
+      <c r="F700" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>644</v>
+      </c>
+      <c r="B701" t="s">
+        <v>733</v>
+      </c>
+      <c r="C701" t="s">
+        <v>11</v>
+      </c>
+      <c r="D701" s="3">
+        <v>6</v>
+      </c>
+      <c r="E701" s="3">
+        <v>267318.36</v>
+      </c>
+      <c r="F701" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>644</v>
+      </c>
+      <c r="B702" t="s">
+        <v>734</v>
+      </c>
+      <c r="C702" t="s">
+        <v>11</v>
+      </c>
+      <c r="D702" s="3">
+        <v>6</v>
+      </c>
+      <c r="E702" s="3">
+        <v>267324.36</v>
+      </c>
+      <c r="F702" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>644</v>
+      </c>
+      <c r="B703" t="s">
+        <v>735</v>
+      </c>
+      <c r="C703" t="s">
+        <v>11</v>
+      </c>
+      <c r="D703" s="3">
+        <v>6</v>
+      </c>
+      <c r="E703" s="3">
+        <v>267330.36</v>
+      </c>
+      <c r="F703" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>644</v>
+      </c>
+      <c r="B704" t="s">
+        <v>736</v>
+      </c>
+      <c r="C704" t="s">
+        <v>11</v>
+      </c>
+      <c r="D704" s="3">
+        <v>6</v>
+      </c>
+      <c r="E704" s="3">
+        <v>267336.36</v>
+      </c>
+      <c r="F704" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>644</v>
+      </c>
+      <c r="B705" t="s">
+        <v>737</v>
+      </c>
+      <c r="C705" t="s">
+        <v>11</v>
+      </c>
+      <c r="D705" s="3">
+        <v>6</v>
+      </c>
+      <c r="E705" s="3">
+        <v>267342.36</v>
+      </c>
+      <c r="F705" s="5">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>644</v>
+      </c>
+      <c r="B706" t="s">
+        <v>738</v>
+      </c>
+      <c r="C706" t="s">
+        <v>11</v>
+      </c>
+      <c r="D706" s="3">
+        <v>6</v>
+      </c>
+      <c r="E706" s="3">
+        <v>267348.36</v>
+      </c>
+      <c r="F706" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>644</v>
+      </c>
+      <c r="B707" t="s">
+        <v>739</v>
+      </c>
+      <c r="C707" t="s">
+        <v>11</v>
+      </c>
+      <c r="D707" s="3">
+        <v>6</v>
+      </c>
+      <c r="E707" s="3">
+        <v>267354.36</v>
+      </c>
+      <c r="F707" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>644</v>
+      </c>
+      <c r="B708" t="s">
+        <v>740</v>
+      </c>
+      <c r="C708" t="s">
+        <v>11</v>
+      </c>
+      <c r="D708" s="3">
+        <v>6</v>
+      </c>
+      <c r="E708" s="3">
+        <v>267360.36</v>
+      </c>
+      <c r="F708" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>644</v>
+      </c>
+      <c r="B709" t="s">
+        <v>741</v>
+      </c>
+      <c r="C709" t="s">
+        <v>11</v>
+      </c>
+      <c r="D709" s="3">
+        <v>6</v>
+      </c>
+      <c r="E709" s="3">
+        <v>267366.36</v>
+      </c>
+      <c r="F709" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>644</v>
+      </c>
+      <c r="B710" t="s">
+        <v>742</v>
+      </c>
+      <c r="C710" t="s">
+        <v>11</v>
+      </c>
+      <c r="D710" s="3">
+        <v>6</v>
+      </c>
+      <c r="E710" s="3">
+        <v>267372.36</v>
+      </c>
+      <c r="F710" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>644</v>
+      </c>
+      <c r="B711" t="s">
+        <v>743</v>
+      </c>
+      <c r="C711" t="s">
+        <v>11</v>
+      </c>
+      <c r="D711" s="3">
+        <v>6</v>
+      </c>
+      <c r="E711" s="3">
+        <v>267378.36</v>
+      </c>
+      <c r="F711" s="5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>644</v>
+      </c>
+      <c r="B712" t="s">
+        <v>744</v>
+      </c>
+      <c r="C712" t="s">
+        <v>11</v>
+      </c>
+      <c r="D712" s="3">
+        <v>6</v>
+      </c>
+      <c r="E712" s="3">
+        <v>267384.36</v>
+      </c>
+      <c r="F712" s="5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>644</v>
+      </c>
+      <c r="B713" t="s">
+        <v>745</v>
+      </c>
+      <c r="C713" t="s">
+        <v>11</v>
+      </c>
+      <c r="D713" s="3">
+        <v>6</v>
+      </c>
+      <c r="E713" s="3">
+        <v>267390.36</v>
+      </c>
+      <c r="F713" s="5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>644</v>
+      </c>
+      <c r="B714" t="s">
+        <v>746</v>
+      </c>
+      <c r="C714" t="s">
+        <v>11</v>
+      </c>
+      <c r="D714" s="3">
+        <v>6</v>
+      </c>
+      <c r="E714" s="3">
+        <v>267396.36</v>
+      </c>
+      <c r="F714" s="5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>644</v>
+      </c>
+      <c r="B715" t="s">
+        <v>747</v>
+      </c>
+      <c r="C715" t="s">
+        <v>11</v>
+      </c>
+      <c r="D715" s="3">
+        <v>6</v>
+      </c>
+      <c r="E715" s="3">
+        <v>267402.36</v>
+      </c>
+      <c r="F715" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>644</v>
+      </c>
+      <c r="B716" t="s">
+        <v>748</v>
+      </c>
+      <c r="C716" t="s">
+        <v>8</v>
+      </c>
+      <c r="D716" s="3">
+        <v>6</v>
+      </c>
+      <c r="E716" s="3">
+        <v>267408.36</v>
+      </c>
+      <c r="F716" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>644</v>
+      </c>
+      <c r="B717" t="s">
+        <v>749</v>
+      </c>
+      <c r="C717" t="s">
+        <v>11</v>
+      </c>
+      <c r="D717" s="3">
+        <v>6</v>
+      </c>
+      <c r="E717" s="3">
+        <v>267414.36</v>
+      </c>
+      <c r="F717" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>644</v>
+      </c>
+      <c r="B718" t="s">
+        <v>750</v>
+      </c>
+      <c r="C718" t="s">
+        <v>11</v>
+      </c>
+      <c r="D718" s="3">
+        <v>6</v>
+      </c>
+      <c r="E718" s="3">
+        <v>267420.36</v>
+      </c>
+      <c r="F718" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>644</v>
+      </c>
+      <c r="B719" t="s">
+        <v>751</v>
+      </c>
+      <c r="C719" t="s">
+        <v>11</v>
+      </c>
+      <c r="D719" s="3">
+        <v>6</v>
+      </c>
+      <c r="E719" s="3">
+        <v>267426.36</v>
+      </c>
+      <c r="F719" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>644</v>
+      </c>
+      <c r="B720" t="s">
+        <v>752</v>
+      </c>
+      <c r="C720" t="s">
+        <v>11</v>
+      </c>
+      <c r="D720" s="3">
+        <v>6</v>
+      </c>
+      <c r="E720" s="3">
+        <v>267432.36</v>
+      </c>
+      <c r="F720" s="5">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>644</v>
+      </c>
+      <c r="B721" t="s">
+        <v>753</v>
+      </c>
+      <c r="C721" t="s">
+        <v>8</v>
+      </c>
+      <c r="D721" s="3">
+        <v>6</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F721" s="5">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>644</v>
+      </c>
+      <c r="B722" t="s">
+        <v>755</v>
+      </c>
+      <c r="C722" t="s">
+        <v>11</v>
+      </c>
+      <c r="D722" s="3">
+        <v>6</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F722" s="5">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>644</v>
+      </c>
+      <c r="B723" t="s">
+        <v>757</v>
+      </c>
+      <c r="C723" t="s">
+        <v>11</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F723" s="5">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>644</v>
+      </c>
+      <c r="B724" t="s">
+        <v>760</v>
+      </c>
+      <c r="C724" t="s">
+        <v>11</v>
+      </c>
+      <c r="D724" s="3">
+        <v>6</v>
+      </c>
+      <c r="E724" s="3">
+        <v>267456.36</v>
+      </c>
+      <c r="F724" s="5">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>644</v>
+      </c>
+      <c r="B725" t="s">
+        <v>761</v>
+      </c>
+      <c r="C725" t="s">
+        <v>11</v>
+      </c>
+      <c r="D725" s="3">
+        <v>6</v>
+      </c>
+      <c r="E725" s="3">
+        <v>267462.36</v>
+      </c>
+      <c r="F725" s="5">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>644</v>
+      </c>
+      <c r="B726" t="s">
+        <v>762</v>
+      </c>
+      <c r="C726" t="s">
+        <v>11</v>
+      </c>
+      <c r="D726" s="3">
+        <v>6</v>
+      </c>
+      <c r="E726" s="3">
+        <v>267468.36</v>
+      </c>
+      <c r="F726" s="5">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>644</v>
+      </c>
+      <c r="B727" t="s">
+        <v>763</v>
+      </c>
+      <c r="C727" t="s">
+        <v>11</v>
+      </c>
+      <c r="D727" s="3">
+        <v>6</v>
+      </c>
+      <c r="E727" s="3">
+        <v>267474.36</v>
+      </c>
+      <c r="F727" s="5">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>644</v>
+      </c>
+      <c r="B728" t="s">
+        <v>764</v>
+      </c>
+      <c r="C728" t="s">
+        <v>11</v>
+      </c>
+      <c r="D728" s="3">
+        <v>6</v>
+      </c>
+      <c r="E728" s="3">
+        <v>267480.36</v>
+      </c>
+      <c r="F728" s="5">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>644</v>
+      </c>
+      <c r="B729" t="s">
+        <v>765</v>
+      </c>
+      <c r="C729" t="s">
+        <v>11</v>
+      </c>
+      <c r="D729" s="3">
+        <v>6</v>
+      </c>
+      <c r="E729" s="3">
+        <v>267486.36</v>
+      </c>
+      <c r="F729" s="5">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730" t="s">
+        <v>766</v>
+      </c>
+      <c r="C730" t="s">
+        <v>11</v>
+      </c>
+      <c r="D730" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E730" s="3">
+        <v>267492.15999999997</v>
+      </c>
+      <c r="F730" s="5">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>728</v>
+      </c>
+      <c r="B731" t="s">
+        <v>767</v>
+      </c>
+      <c r="D731" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E731" s="3">
+        <v>267497.96000000002</v>
+      </c>
+      <c r="F731" s="5">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732" t="s">
+        <v>768</v>
+      </c>
+      <c r="C732" t="s">
+        <v>11</v>
+      </c>
+      <c r="D732" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="E732" s="3">
+        <v>267503.65999999997</v>
+      </c>
+      <c r="F732" s="5">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733" t="s">
+        <v>769</v>
+      </c>
+      <c r="C733" t="s">
+        <v>11</v>
+      </c>
+      <c r="D733" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E733" s="3">
+        <v>267509.26</v>
+      </c>
+      <c r="F733" s="5">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>731</v>
+      </c>
+      <c r="B734" t="s">
+        <v>770</v>
+      </c>
+      <c r="C734" t="s">
+        <v>11</v>
+      </c>
+      <c r="D734" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E734" s="3">
+        <v>267514.86</v>
+      </c>
+      <c r="F734" s="5">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735" t="s">
+        <v>771</v>
+      </c>
+      <c r="C735" t="s">
+        <v>11</v>
+      </c>
+      <c r="D735" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E735" s="3">
+        <v>267520.36</v>
+      </c>
+      <c r="F735" s="5">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>733</v>
+      </c>
+      <c r="B736" t="s">
+        <v>772</v>
+      </c>
+      <c r="C736" t="s">
+        <v>11</v>
+      </c>
+      <c r="D736" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E736" s="3">
+        <v>267525.86</v>
+      </c>
+      <c r="F736" s="5">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>733</v>
+      </c>
+      <c r="B737" t="s">
+        <v>773</v>
+      </c>
+      <c r="C737" t="s">
+        <v>11</v>
+      </c>
+      <c r="D737" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E737" s="3">
+        <v>267531.36</v>
+      </c>
+      <c r="F737" s="5">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>733</v>
+      </c>
+      <c r="B738" t="s">
+        <v>774</v>
+      </c>
+      <c r="C738" t="s">
+        <v>11</v>
+      </c>
+      <c r="D738" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E738" s="3">
+        <v>267536.86</v>
+      </c>
+      <c r="F738" s="5">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739" t="s">
+        <v>775</v>
+      </c>
+      <c r="C739" t="s">
+        <v>11</v>
+      </c>
+      <c r="D739" s="3">
+        <v>5.36</v>
+      </c>
+      <c r="E739" s="3">
+        <v>267542.21000000002</v>
+      </c>
+      <c r="F739" s="5">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740" t="s">
+        <v>776</v>
+      </c>
+      <c r="C740" t="s">
+        <v>11</v>
+      </c>
+      <c r="D740" s="3">
+        <v>5.35</v>
+      </c>
+      <c r="E740" s="3">
+        <v>267547.56</v>
+      </c>
+      <c r="F740" s="5">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741" t="s">
+        <v>777</v>
+      </c>
+      <c r="C741" t="s">
+        <v>8</v>
+      </c>
+      <c r="D741" s="3">
+        <v>5.16</v>
+      </c>
+      <c r="E741" s="3">
+        <v>267552.71999999997</v>
+      </c>
+      <c r="F741" s="5">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742" t="s">
+        <v>778</v>
+      </c>
+      <c r="C742" t="s">
+        <v>8</v>
+      </c>
+      <c r="D742" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E742" s="3">
+        <v>267557.82</v>
+      </c>
+      <c r="F742" s="5">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743" t="s">
+        <v>779</v>
+      </c>
+      <c r="C743" t="s">
+        <v>8</v>
+      </c>
+      <c r="D743" s="3">
+        <v>5</v>
+      </c>
+      <c r="E743" s="3">
+        <v>267562.82</v>
+      </c>
+      <c r="F743" s="5">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>741</v>
+      </c>
+      <c r="B744" t="s">
+        <v>780</v>
+      </c>
+      <c r="C744" t="s">
+        <v>11</v>
+      </c>
+      <c r="D744" s="3">
+        <v>5</v>
+      </c>
+      <c r="E744" s="3">
+        <v>267567.82</v>
+      </c>
+      <c r="F744" s="5">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>741</v>
+      </c>
+      <c r="B745" t="s">
+        <v>781</v>
+      </c>
+      <c r="C745" t="s">
+        <v>11</v>
+      </c>
+      <c r="D745" s="3">
+        <v>5</v>
+      </c>
+      <c r="E745" s="3">
+        <v>267572.82</v>
+      </c>
+      <c r="F745" s="5">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>741</v>
+      </c>
+      <c r="B746" t="s">
+        <v>782</v>
+      </c>
+      <c r="C746" t="s">
+        <v>8</v>
+      </c>
+      <c r="D746" s="3">
+        <v>5</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F746" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>741</v>
+      </c>
+      <c r="B747" t="s">
+        <v>785</v>
+      </c>
+      <c r="C747" t="s">
+        <v>8</v>
+      </c>
+      <c r="D747" s="3">
+        <v>5</v>
+      </c>
+      <c r="E747" s="3">
+        <v>267582.82</v>
+      </c>
+      <c r="F747" s="5">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>741</v>
+      </c>
+      <c r="B748" t="s">
+        <v>786</v>
+      </c>
+      <c r="C748" t="s">
+        <v>8</v>
+      </c>
+      <c r="D748" s="3">
+        <v>5</v>
+      </c>
+      <c r="E748" s="3">
+        <v>267587.82</v>
+      </c>
+      <c r="F748" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>741</v>
+      </c>
+      <c r="B749" t="s">
+        <v>787</v>
+      </c>
+      <c r="C749" t="s">
+        <v>11</v>
+      </c>
+      <c r="D749" s="3">
+        <v>5</v>
+      </c>
+      <c r="E749" s="3">
+        <v>267592.82</v>
+      </c>
+      <c r="F749" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>741</v>
+      </c>
+      <c r="B750" t="s">
+        <v>788</v>
+      </c>
+      <c r="C750" t="s">
+        <v>8</v>
+      </c>
+      <c r="D750" s="3">
+        <v>5</v>
+      </c>
+      <c r="E750" s="3">
+        <v>267597.82</v>
+      </c>
+      <c r="F750" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>741</v>
+      </c>
+      <c r="B751" t="s">
+        <v>789</v>
+      </c>
+      <c r="C751" t="s">
+        <v>11</v>
+      </c>
+      <c r="D751" s="3">
+        <v>5</v>
+      </c>
+      <c r="E751" s="3">
+        <v>267602.82</v>
+      </c>
+      <c r="F751" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>741</v>
+      </c>
+      <c r="B752" t="s">
+        <v>790</v>
+      </c>
+      <c r="C752" t="s">
+        <v>11</v>
+      </c>
+      <c r="D752" s="3">
+        <v>5</v>
+      </c>
+      <c r="E752" s="3">
+        <v>267607.82</v>
+      </c>
+      <c r="F752" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>741</v>
+      </c>
+      <c r="B753" t="s">
+        <v>791</v>
+      </c>
+      <c r="C753" t="s">
+        <v>11</v>
+      </c>
+      <c r="D753" s="3">
+        <v>5</v>
+      </c>
+      <c r="E753" s="3">
+        <v>267612.82</v>
+      </c>
+      <c r="F753" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>741</v>
+      </c>
+      <c r="B754" t="s">
+        <v>792</v>
+      </c>
+      <c r="C754" t="s">
+        <v>8</v>
+      </c>
+      <c r="D754" s="3">
+        <v>5</v>
+      </c>
+      <c r="E754" s="3">
+        <v>267617.82</v>
+      </c>
+      <c r="F754" s="5">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>741</v>
+      </c>
+      <c r="B755" t="s">
+        <v>793</v>
+      </c>
+      <c r="C755" t="s">
+        <v>8</v>
+      </c>
+      <c r="D755" s="3">
+        <v>5</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F755" s="5">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756" t="s">
+        <v>795</v>
+      </c>
+      <c r="C756" t="s">
+        <v>11</v>
+      </c>
+      <c r="D756" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E756" s="3">
+        <v>267627.71999999997</v>
+      </c>
+      <c r="F756" s="5">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757" t="s">
+        <v>796</v>
+      </c>
+      <c r="C757" t="s">
+        <v>11</v>
+      </c>
+      <c r="D757" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E757" s="3">
+        <v>267632.52</v>
+      </c>
+      <c r="F757" s="5">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758" t="s">
+        <v>797</v>
+      </c>
+      <c r="C758" t="s">
+        <v>11</v>
+      </c>
+      <c r="D758" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="E758" s="3">
+        <v>267637.28000000003</v>
+      </c>
+      <c r="F758" s="5">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>756</v>
+      </c>
+      <c r="B759" t="s">
+        <v>798</v>
+      </c>
+      <c r="C759" t="s">
+        <v>11</v>
+      </c>
+      <c r="D759" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F759" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760" t="s">
+        <v>800</v>
+      </c>
+      <c r="C760" t="s">
+        <v>11</v>
+      </c>
+      <c r="D760" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E760" s="3">
+        <v>267646.59000000003</v>
+      </c>
+      <c r="F760" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>758</v>
+      </c>
+      <c r="B761" t="s">
+        <v>801</v>
+      </c>
+      <c r="C761" t="s">
+        <v>8</v>
+      </c>
+      <c r="D761" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E761" s="3">
+        <v>267651.15000000002</v>
+      </c>
+      <c r="F761" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>758</v>
+      </c>
+      <c r="B762" t="s">
+        <v>802</v>
+      </c>
+      <c r="C762" t="s">
+        <v>8</v>
+      </c>
+      <c r="D762" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E762" s="3">
+        <v>267655.71000000002</v>
+      </c>
+      <c r="F762" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>758</v>
+      </c>
+      <c r="B763" t="s">
+        <v>803</v>
+      </c>
+      <c r="C763" t="s">
+        <v>11</v>
+      </c>
+      <c r="D763" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E763" s="3">
+        <v>267660.27</v>
+      </c>
+      <c r="F763" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>804</v>
+      </c>
+      <c r="C764" t="s">
+        <v>11</v>
+      </c>
+      <c r="D764" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E764" s="3">
+        <v>267664.77</v>
+      </c>
+      <c r="F764" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>762</v>
+      </c>
+      <c r="B765" t="s">
+        <v>805</v>
+      </c>
+      <c r="C765" t="s">
+        <v>8</v>
+      </c>
+      <c r="D765" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E765" s="3">
+        <v>267669.27</v>
+      </c>
+      <c r="F765" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766" t="s">
+        <v>806</v>
+      </c>
+      <c r="C766" t="s">
+        <v>11</v>
+      </c>
+      <c r="D766" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E766" s="3">
+        <v>267673.53000000003</v>
+      </c>
+      <c r="F766" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767" t="s">
+        <v>807</v>
+      </c>
+      <c r="C767" t="s">
+        <v>11</v>
+      </c>
+      <c r="D767" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="E767" s="3">
+        <v>267677.58</v>
+      </c>
+      <c r="F767" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768" t="s">
+        <v>808</v>
+      </c>
+      <c r="C768" t="s">
+        <v>11</v>
+      </c>
+      <c r="D768" s="3">
+        <v>4</v>
+      </c>
+      <c r="E768" s="3">
+        <v>267681.58</v>
+      </c>
+      <c r="F768" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>766</v>
+      </c>
+      <c r="B769" t="s">
+        <v>809</v>
+      </c>
+      <c r="C769" t="s">
+        <v>8</v>
+      </c>
+      <c r="D769" s="3">
+        <v>4</v>
+      </c>
+      <c r="E769" s="3">
+        <v>267685.58</v>
+      </c>
+      <c r="F769" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>766</v>
+      </c>
+      <c r="B770" t="s">
+        <v>810</v>
+      </c>
+      <c r="C770" t="s">
+        <v>11</v>
+      </c>
+      <c r="D770" s="3">
+        <v>4</v>
+      </c>
+      <c r="E770" s="3">
+        <v>267689.58</v>
+      </c>
+      <c r="F770" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>766</v>
+      </c>
+      <c r="B771" t="s">
+        <v>811</v>
+      </c>
+      <c r="C771" t="s">
+        <v>8</v>
+      </c>
+      <c r="D771" s="3">
+        <v>4</v>
+      </c>
+      <c r="E771" s="3">
+        <v>267693.58</v>
+      </c>
+      <c r="F771" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>766</v>
+      </c>
+      <c r="B772" t="s">
+        <v>812</v>
+      </c>
+      <c r="C772" t="s">
+        <v>11</v>
+      </c>
+      <c r="D772" s="3">
+        <v>4</v>
+      </c>
+      <c r="E772" s="3">
+        <v>267697.58</v>
+      </c>
+      <c r="F772" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>766</v>
+      </c>
+      <c r="B773" t="s">
+        <v>813</v>
+      </c>
+      <c r="C773" t="s">
+        <v>11</v>
+      </c>
+      <c r="D773" s="3">
+        <v>4</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F773" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>766</v>
+      </c>
+      <c r="B774" t="s">
+        <v>815</v>
+      </c>
+      <c r="C774" t="s">
+        <v>8</v>
+      </c>
+      <c r="D774" s="3">
+        <v>4</v>
+      </c>
+      <c r="E774" s="3">
+        <v>267705.58</v>
+      </c>
+      <c r="F774" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>816</v>
+      </c>
+      <c r="B775" t="s">
+        <v>817</v>
+      </c>
+      <c r="C775" t="s">
+        <v>11</v>
+      </c>
+      <c r="D775" s="3">
+        <v>4</v>
+      </c>
+      <c r="E775" s="3">
+        <v>267709.58</v>
+      </c>
+      <c r="F775" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>766</v>
+      </c>
+      <c r="B776" t="s">
+        <v>818</v>
+      </c>
+      <c r="C776" t="s">
+        <v>11</v>
+      </c>
+      <c r="D776" s="3">
+        <v>4</v>
+      </c>
+      <c r="E776" s="3">
+        <v>267713.58</v>
+      </c>
+      <c r="F776" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>766</v>
+      </c>
+      <c r="B777" t="s">
+        <v>819</v>
+      </c>
+      <c r="D777" s="3">
+        <v>4</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F777" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>766</v>
+      </c>
+      <c r="B778" t="s">
+        <v>821</v>
+      </c>
+      <c r="D778" s="3">
+        <v>4</v>
+      </c>
+      <c r="E778" s="3">
+        <v>267721.58</v>
+      </c>
+      <c r="F778" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>766</v>
+      </c>
+      <c r="B779" t="s">
+        <v>822</v>
+      </c>
+      <c r="C779" t="s">
+        <v>11</v>
+      </c>
+      <c r="D779" s="3">
+        <v>4</v>
+      </c>
+      <c r="E779" s="3">
+        <v>267725.58</v>
+      </c>
+      <c r="F779" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>766</v>
+      </c>
+      <c r="B780" t="s">
+        <v>823</v>
+      </c>
+      <c r="C780" t="s">
+        <v>8</v>
+      </c>
+      <c r="D780" s="3">
+        <v>4</v>
+      </c>
+      <c r="E780" s="3">
+        <v>267729.58</v>
+      </c>
+      <c r="F780" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781" t="s">
+        <v>824</v>
+      </c>
+      <c r="C781" t="s">
+        <v>11</v>
+      </c>
+      <c r="D781" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F781" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782" t="s">
+        <v>826</v>
+      </c>
+      <c r="C782" t="s">
+        <v>8</v>
+      </c>
+      <c r="D782" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="E782" s="3">
+        <v>267737.27</v>
+      </c>
+      <c r="F782" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783" t="s">
+        <v>827</v>
+      </c>
+      <c r="D783" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F783" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>781</v>
+      </c>
+      <c r="B784" t="s">
+        <v>829</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E784" s="3">
+        <v>267744.46999999997</v>
+      </c>
+      <c r="F784" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>831</v>
+      </c>
+      <c r="B785" t="s">
+        <v>832</v>
+      </c>
+      <c r="C785" t="s">
+        <v>833</v>
+      </c>
+      <c r="D785" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="E785" s="3">
+        <v>261748</v>
+      </c>
+      <c r="F785" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786" t="s">
+        <v>834</v>
+      </c>
+      <c r="C786" t="s">
+        <v>8</v>
+      </c>
+      <c r="D786" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E786" s="3">
+        <v>267751.5</v>
+      </c>
+      <c r="F786" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>784</v>
+      </c>
+      <c r="B787" t="s">
+        <v>835</v>
+      </c>
+      <c r="C787" t="s">
+        <v>8</v>
+      </c>
+      <c r="D787" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E787" s="3">
+        <v>267755</v>
+      </c>
+      <c r="F787" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788" t="s">
+        <v>836</v>
+      </c>
+      <c r="C788" t="s">
+        <v>11</v>
+      </c>
+      <c r="D788" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="E788" s="3">
+        <v>267758.40999999997</v>
+      </c>
+      <c r="F788" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789" t="s">
+        <v>837</v>
+      </c>
+      <c r="C789" t="s">
+        <v>8</v>
+      </c>
+      <c r="D789" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E789" s="3">
+        <v>267761.81</v>
+      </c>
+      <c r="F789" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790" t="s">
+        <v>838</v>
+      </c>
+      <c r="C790" t="s">
+        <v>11</v>
+      </c>
+      <c r="D790" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F790" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791" t="s">
+        <v>840</v>
+      </c>
+      <c r="C791" t="s">
+        <v>11</v>
+      </c>
+      <c r="D791" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="E791" s="3">
+        <v>267768.37</v>
+      </c>
+      <c r="F791" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792" t="s">
+        <v>841</v>
+      </c>
+      <c r="C792" t="s">
+        <v>11</v>
+      </c>
+      <c r="D792" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E792" s="3">
+        <v>267771.57</v>
+      </c>
+      <c r="F792" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793" t="s">
+        <v>842</v>
+      </c>
+      <c r="C793" t="s">
+        <v>11</v>
+      </c>
+      <c r="D793" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="E793" s="3">
+        <v>267774.67</v>
+      </c>
+      <c r="F793" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>843</v>
+      </c>
+      <c r="B794" t="s">
+        <v>844</v>
+      </c>
+      <c r="D794" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="E794" s="3">
+        <v>267777.75</v>
+      </c>
+      <c r="F794" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795" t="s">
+        <v>845</v>
+      </c>
+      <c r="C795" t="s">
+        <v>11</v>
+      </c>
+      <c r="D795" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="E795" s="3">
+        <v>267780.82</v>
+      </c>
+      <c r="F795" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796" t="s">
+        <v>846</v>
+      </c>
+      <c r="C796" t="s">
+        <v>11</v>
+      </c>
+      <c r="D796" s="3">
+        <v>3</v>
+      </c>
+      <c r="E796" s="3">
+        <v>267783.82</v>
+      </c>
+      <c r="F796" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>794</v>
+      </c>
+      <c r="B797" t="s">
+        <v>847</v>
+      </c>
+      <c r="C797" t="s">
+        <v>11</v>
+      </c>
+      <c r="D797" s="3">
+        <v>3</v>
+      </c>
+      <c r="E797" s="3">
+        <v>267786.82</v>
+      </c>
+      <c r="F797" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>794</v>
+      </c>
+      <c r="B798" t="s">
+        <v>848</v>
+      </c>
+      <c r="C798" t="s">
+        <v>11</v>
+      </c>
+      <c r="D798" s="3">
+        <v>3</v>
+      </c>
+      <c r="E798" s="3">
+        <v>267789.82</v>
+      </c>
+      <c r="F798" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>794</v>
+      </c>
+      <c r="B799" t="s">
+        <v>849</v>
+      </c>
+      <c r="C799" t="s">
+        <v>8</v>
+      </c>
+      <c r="D799" s="3">
+        <v>3</v>
+      </c>
+      <c r="E799" s="3">
+        <v>267792.82</v>
+      </c>
+      <c r="F799" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>794</v>
+      </c>
+      <c r="B800" t="s">
+        <v>850</v>
+      </c>
+      <c r="C800" t="s">
+        <v>11</v>
+      </c>
+      <c r="D800" s="3">
+        <v>3</v>
+      </c>
+      <c r="E800" s="3">
+        <v>267795.82</v>
+      </c>
+      <c r="F800" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>794</v>
+      </c>
+      <c r="B801" t="s">
+        <v>851</v>
+      </c>
+      <c r="C801" t="s">
+        <v>8</v>
+      </c>
+      <c r="D801" s="3">
+        <v>3</v>
+      </c>
+      <c r="E801" s="3">
+        <v>267798.82</v>
+      </c>
+      <c r="F801" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>794</v>
+      </c>
+      <c r="B802" t="s">
+        <v>852</v>
+      </c>
+      <c r="C802" t="s">
+        <v>11</v>
+      </c>
+      <c r="D802" s="3">
+        <v>3</v>
+      </c>
+      <c r="E802" s="3">
+        <v>267801.82</v>
+      </c>
+      <c r="F802" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>794</v>
+      </c>
+      <c r="B803" t="s">
+        <v>853</v>
+      </c>
+      <c r="C803" t="s">
+        <v>8</v>
+      </c>
+      <c r="D803" s="3">
+        <v>3</v>
+      </c>
+      <c r="E803" s="3">
+        <v>267804.82</v>
+      </c>
+      <c r="F803" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804" t="s">
+        <v>854</v>
+      </c>
+      <c r="C804" t="s">
+        <v>11</v>
+      </c>
+      <c r="D804" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="E804" s="3">
+        <v>267807.52</v>
+      </c>
+      <c r="F804" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805" t="s">
+        <v>855</v>
+      </c>
+      <c r="C805" t="s">
+        <v>8</v>
+      </c>
+      <c r="D805" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E805" s="3">
+        <v>267810.12</v>
+      </c>
+      <c r="F805" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>803</v>
+      </c>
+      <c r="B806" t="s">
+        <v>856</v>
+      </c>
+      <c r="C806" t="s">
+        <v>11</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E806" s="3">
+        <v>267812.71999999997</v>
+      </c>
+      <c r="F806" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807" t="s">
+        <v>857</v>
+      </c>
+      <c r="C807" t="s">
+        <v>11</v>
+      </c>
+      <c r="D807" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E807" s="3">
+        <v>267815.21999999997</v>
+      </c>
+      <c r="F807" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>805</v>
+      </c>
+      <c r="B808" t="s">
+        <v>858</v>
+      </c>
+      <c r="C808" t="s">
+        <v>11</v>
+      </c>
+      <c r="D808" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E808" s="3">
+        <v>267817.71999999997</v>
+      </c>
+      <c r="F808" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>805</v>
+      </c>
+      <c r="B809" t="s">
+        <v>859</v>
+      </c>
+      <c r="C809" t="s">
+        <v>11</v>
+      </c>
+      <c r="D809" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E809" s="3">
+        <v>267820.21999999997</v>
+      </c>
+      <c r="F809" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810" t="s">
+        <v>860</v>
+      </c>
+      <c r="C810" t="s">
+        <v>11</v>
+      </c>
+      <c r="D810" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="E810" s="3">
+        <v>267822.62</v>
+      </c>
+      <c r="F810" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>808</v>
+      </c>
+      <c r="B811" t="s">
+        <v>861</v>
+      </c>
+      <c r="C811" t="s">
+        <v>11</v>
+      </c>
+      <c r="D811" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="E811" s="3">
+        <v>267825.02</v>
+      </c>
+      <c r="F811" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812" t="s">
+        <v>862</v>
+      </c>
+      <c r="C812" t="s">
+        <v>11</v>
+      </c>
+      <c r="D812" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E812" s="3">
+        <v>267827.32</v>
+      </c>
+      <c r="F812" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813" t="s">
+        <v>863</v>
+      </c>
+      <c r="C813" t="s">
+        <v>11</v>
+      </c>
+      <c r="D813" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="E813" s="3">
+        <v>267829.53000000003</v>
+      </c>
+      <c r="F813" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814" t="s">
+        <v>864</v>
+      </c>
+      <c r="C814" t="s">
+        <v>11</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E814" s="3">
+        <v>267831.73</v>
+      </c>
+      <c r="F814" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>812</v>
+      </c>
+      <c r="B815" t="s">
+        <v>865</v>
+      </c>
+      <c r="C815" t="s">
+        <v>11</v>
+      </c>
+      <c r="D815" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E815" s="3">
+        <v>267833.93</v>
+      </c>
+      <c r="F815" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816" t="s">
+        <v>866</v>
+      </c>
+      <c r="C816" t="s">
+        <v>8</v>
+      </c>
+      <c r="D816" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="E816" s="3">
+        <v>267836.12</v>
+      </c>
+      <c r="F816" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817" t="s">
+        <v>867</v>
+      </c>
+      <c r="C817" t="s">
+        <v>8</v>
+      </c>
+      <c r="D817" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="E817" s="3">
+        <v>267838.28000000003</v>
+      </c>
+      <c r="F817" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818" t="s">
+        <v>868</v>
+      </c>
+      <c r="C818" t="s">
+        <v>11</v>
+      </c>
+      <c r="D818" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E818" s="3">
+        <v>267840.38</v>
+      </c>
+      <c r="F818" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819" t="s">
+        <v>869</v>
+      </c>
+      <c r="C819" t="s">
+        <v>8</v>
+      </c>
+      <c r="D819" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E819" s="3">
+        <v>267842.43</v>
+      </c>
+      <c r="F819" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820" t="s">
+        <v>870</v>
+      </c>
+      <c r="C820" t="s">
+        <v>11</v>
+      </c>
+      <c r="D820" s="3">
+        <v>2</v>
+      </c>
+      <c r="E820" s="3">
+        <v>267844.43</v>
+      </c>
+      <c r="F820" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>818</v>
+      </c>
+      <c r="B821" t="s">
+        <v>871</v>
+      </c>
+      <c r="C821" t="s">
+        <v>8</v>
+      </c>
+      <c r="D821" s="3">
+        <v>2</v>
+      </c>
+      <c r="E821" s="3">
+        <v>267846.43</v>
+      </c>
+      <c r="F821" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>818</v>
+      </c>
+      <c r="B822" t="s">
+        <v>872</v>
+      </c>
+      <c r="C822" t="s">
+        <v>8</v>
+      </c>
+      <c r="D822" s="3">
+        <v>2</v>
+      </c>
+      <c r="E822" s="3">
+        <v>267848.43</v>
+      </c>
+      <c r="F822" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>818</v>
+      </c>
+      <c r="B823" t="s">
+        <v>873</v>
+      </c>
+      <c r="C823" t="s">
+        <v>8</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2</v>
+      </c>
+      <c r="E823" s="3">
+        <v>267850.43</v>
+      </c>
+      <c r="F823" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>818</v>
+      </c>
+      <c r="B824" t="s">
+        <v>874</v>
+      </c>
+      <c r="C824" t="s">
+        <v>8</v>
+      </c>
+      <c r="D824" s="3">
+        <v>2</v>
+      </c>
+      <c r="E824" s="3">
+        <v>267852.43</v>
+      </c>
+      <c r="F824" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>818</v>
+      </c>
+      <c r="B825" t="s">
+        <v>875</v>
+      </c>
+      <c r="C825" t="s">
+        <v>11</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2</v>
+      </c>
+      <c r="E825" s="3">
+        <v>267854.43</v>
+      </c>
+      <c r="F825" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>818</v>
+      </c>
+      <c r="B826" t="s">
+        <v>876</v>
+      </c>
+      <c r="C826" t="s">
+        <v>11</v>
+      </c>
+      <c r="D826" s="3">
+        <v>2</v>
+      </c>
+      <c r="E826" s="3">
+        <v>267856.43</v>
+      </c>
+      <c r="F826" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>818</v>
+      </c>
+      <c r="B827" t="s">
+        <v>877</v>
+      </c>
+      <c r="C827" t="s">
+        <v>11</v>
+      </c>
+      <c r="D827" s="3">
+        <v>2</v>
+      </c>
+      <c r="E827" s="3">
+        <v>267858.43</v>
+      </c>
+      <c r="F827" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>818</v>
+      </c>
+      <c r="B828" t="s">
+        <v>879</v>
+      </c>
+      <c r="D828" s="3">
+        <v>2</v>
+      </c>
+      <c r="E828" s="3">
+        <v>267860.43</v>
+      </c>
+      <c r="F828" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>818</v>
+      </c>
+      <c r="B829" t="s">
+        <v>880</v>
+      </c>
+      <c r="C829" t="s">
+        <v>11</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2</v>
+      </c>
+      <c r="E829" s="3">
+        <v>267862.43</v>
+      </c>
+      <c r="F829" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>818</v>
+      </c>
+      <c r="B830" t="s">
+        <v>881</v>
+      </c>
+      <c r="C830" t="s">
+        <v>8</v>
+      </c>
+      <c r="D830" s="3">
+        <v>2</v>
+      </c>
+      <c r="E830" s="3">
+        <v>267864.43</v>
+      </c>
+      <c r="F830" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>818</v>
+      </c>
+      <c r="B831" t="s">
+        <v>882</v>
+      </c>
+      <c r="C831" t="s">
+        <v>11</v>
+      </c>
+      <c r="D831" s="3">
+        <v>2</v>
+      </c>
+      <c r="E831" s="3">
+        <v>267866.43</v>
+      </c>
+      <c r="F831" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>818</v>
+      </c>
+      <c r="B832" t="s">
+        <v>883</v>
+      </c>
+      <c r="C832" t="s">
+        <v>11</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2</v>
+      </c>
+      <c r="E832" s="3">
+        <v>267868.43</v>
+      </c>
+      <c r="F832" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>818</v>
+      </c>
+      <c r="B833" t="s">
+        <v>884</v>
+      </c>
+      <c r="C833" t="s">
+        <v>11</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2</v>
+      </c>
+      <c r="E833" s="3">
+        <v>267870.43</v>
+      </c>
+      <c r="F833" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>818</v>
+      </c>
+      <c r="B834" t="s">
+        <v>885</v>
+      </c>
+      <c r="C834" t="s">
+        <v>8</v>
+      </c>
+      <c r="D834" s="3">
+        <v>2</v>
+      </c>
+      <c r="E834" s="3">
+        <v>267872.43</v>
+      </c>
+      <c r="F834" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835" t="s">
+        <v>886</v>
+      </c>
+      <c r="C835" t="s">
+        <v>11</v>
+      </c>
+      <c r="D835" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="E835" s="3">
+        <v>267874.40000000002</v>
+      </c>
+      <c r="F835" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836" t="s">
+        <v>887</v>
+      </c>
+      <c r="C836" t="s">
+        <v>11</v>
+      </c>
+      <c r="D836" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E836" s="3">
+        <v>267876.3</v>
+      </c>
+      <c r="F836" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837" t="s">
+        <v>888</v>
+      </c>
+      <c r="C837" t="s">
+        <v>8</v>
+      </c>
+      <c r="D837" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="E837" s="3">
+        <v>267878.15999999997</v>
+      </c>
+      <c r="F837" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>889</v>
+      </c>
+      <c r="B838" t="s">
+        <v>890</v>
+      </c>
+      <c r="C838" t="s">
+        <v>11</v>
+      </c>
+      <c r="D838" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="E838" s="3">
+        <v>267880.01</v>
+      </c>
+      <c r="F838" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839" t="s">
+        <v>891</v>
+      </c>
+      <c r="C839" t="s">
+        <v>8</v>
+      </c>
+      <c r="D839" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="E839" s="3">
+        <v>267881.78000000003</v>
+      </c>
+      <c r="F839" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840" t="s">
+        <v>892</v>
+      </c>
+      <c r="C840" t="s">
+        <v>11</v>
+      </c>
+      <c r="D840" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="E840" s="3">
+        <v>267883.48</v>
+      </c>
+      <c r="F840" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>838</v>
+      </c>
+      <c r="B841" t="s">
+        <v>893</v>
+      </c>
+      <c r="C841" t="s">
+        <v>8</v>
+      </c>
+      <c r="D841" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="E841" s="3">
+        <v>267885.18</v>
+      </c>
+      <c r="F841" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842" t="s">
+        <v>894</v>
+      </c>
+      <c r="C842" t="s">
+        <v>11</v>
+      </c>
+      <c r="D842" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="E842" s="3">
+        <v>267886.83</v>
+      </c>
+      <c r="F842" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843" t="s">
+        <v>895</v>
+      </c>
+      <c r="C843" t="s">
+        <v>11</v>
+      </c>
+      <c r="D843" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E843" s="3">
+        <v>267888.43</v>
+      </c>
+      <c r="F843" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>841</v>
+      </c>
+      <c r="B844" t="s">
+        <v>896</v>
+      </c>
+      <c r="C844" t="s">
+        <v>11</v>
+      </c>
+      <c r="D844" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E844" s="3">
+        <v>267890.03000000003</v>
+      </c>
+      <c r="F844" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845" t="s">
+        <v>897</v>
+      </c>
+      <c r="C845" t="s">
+        <v>11</v>
+      </c>
+      <c r="D845" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="E845" s="3">
+        <v>267891.48</v>
+      </c>
+      <c r="F845" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>898</v>
+      </c>
+      <c r="B846" t="s">
+        <v>899</v>
+      </c>
+      <c r="C846" t="s">
+        <v>11</v>
+      </c>
+      <c r="D846" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E846" s="3">
+        <v>267892.88</v>
+      </c>
+      <c r="F846" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847" t="s">
+        <v>900</v>
+      </c>
+      <c r="C847" t="s">
+        <v>11</v>
+      </c>
+      <c r="D847" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="E847" s="3">
+        <v>267894.23</v>
+      </c>
+      <c r="F847" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848" t="s">
+        <v>901</v>
+      </c>
+      <c r="C848" t="s">
+        <v>8</v>
+      </c>
+      <c r="D848" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E848" s="3">
+        <v>267895.53000000003</v>
+      </c>
+      <c r="F848" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849" t="s">
+        <v>902</v>
+      </c>
+      <c r="C849" t="s">
+        <v>11</v>
+      </c>
+      <c r="D849" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E849" s="3">
+        <v>267896.73</v>
+      </c>
+      <c r="F849" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>847</v>
+      </c>
+      <c r="B850" t="s">
+        <v>903</v>
+      </c>
+      <c r="C850" t="s">
+        <v>11</v>
+      </c>
+      <c r="D850" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F850" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851" t="s">
+        <v>905</v>
+      </c>
+      <c r="C851" t="s">
+        <v>8</v>
+      </c>
+      <c r="D851" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E851" s="3">
+        <v>267899.03000000003</v>
+      </c>
+      <c r="F851" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>849</v>
+      </c>
+      <c r="B852" t="s">
+        <v>906</v>
+      </c>
+      <c r="D852" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E852" s="3">
+        <v>267900.13</v>
+      </c>
+      <c r="F852" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>849</v>
+      </c>
+      <c r="B853" t="s">
+        <v>907</v>
+      </c>
+      <c r="C853" t="s">
+        <v>11</v>
+      </c>
+      <c r="D853" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E853" s="3">
+        <v>267901.23</v>
+      </c>
+      <c r="F853" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>849</v>
+      </c>
+      <c r="B854" t="s">
+        <v>908</v>
+      </c>
+      <c r="C854" t="s">
+        <v>11</v>
+      </c>
+      <c r="D854" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E854" s="3">
+        <v>267902.33</v>
+      </c>
+      <c r="F854" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>849</v>
+      </c>
+      <c r="B855" t="s">
+        <v>909</v>
+      </c>
+      <c r="D855" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F855" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856" t="s">
+        <v>911</v>
+      </c>
+      <c r="C856" t="s">
+        <v>11</v>
+      </c>
+      <c r="D856" s="3">
+        <v>1</v>
+      </c>
+      <c r="E856" s="3">
+        <v>267904.43</v>
+      </c>
+      <c r="F856" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>912</v>
+      </c>
+      <c r="B857" t="s">
+        <v>913</v>
+      </c>
+      <c r="C857" t="s">
+        <v>11</v>
+      </c>
+      <c r="D857" s="3">
+        <v>1</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="F857" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>854</v>
+      </c>
+      <c r="B858" t="s">
+        <v>915</v>
+      </c>
+      <c r="D858" s="3">
+        <v>1</v>
+      </c>
+      <c r="E858" s="3">
+        <v>267906.43</v>
+      </c>
+      <c r="F858" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>854</v>
+      </c>
+      <c r="B859" t="s">
+        <v>916</v>
+      </c>
+      <c r="C859" t="s">
+        <v>11</v>
+      </c>
+      <c r="D859" s="3">
+        <v>1</v>
+      </c>
+      <c r="E859" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F859" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>918</v>
+      </c>
+      <c r="B860" t="s">
+        <v>919</v>
+      </c>
+      <c r="D860" s="3">
+        <v>1</v>
+      </c>
+      <c r="E860" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F860" s="5">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>854</v>
+      </c>
+      <c r="B861" t="s">
+        <v>921</v>
+      </c>
+      <c r="C861" t="s">
+        <v>8</v>
+      </c>
+      <c r="D861" s="3">
+        <v>1</v>
+      </c>
+      <c r="E861" s="3">
+        <v>267909.43</v>
+      </c>
+      <c r="F861" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>854</v>
+      </c>
+      <c r="B862" t="s">
+        <v>922</v>
+      </c>
+      <c r="C862" t="s">
+        <v>11</v>
+      </c>
+      <c r="D862" s="3">
+        <v>1</v>
+      </c>
+      <c r="E862" s="3">
+        <v>267910.43</v>
+      </c>
+      <c r="F862" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863" t="s">
+        <v>923</v>
+      </c>
+      <c r="C863" t="s">
+        <v>11</v>
+      </c>
+      <c r="D863" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F863" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>861</v>
+      </c>
+      <c r="B864" t="s">
+        <v>925</v>
+      </c>
+      <c r="D864" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E864" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="F864" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865" t="s">
+        <v>927</v>
+      </c>
+      <c r="D865" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E865" s="3">
+        <v>267912.73</v>
+      </c>
+      <c r="F865" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>863</v>
+      </c>
+      <c r="B866" t="s">
+        <v>928</v>
+      </c>
+      <c r="C866" t="s">
+        <v>11</v>
+      </c>
+      <c r="D866" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E866" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F866" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>930</v>
+      </c>
+      <c r="C867" t="s">
+        <v>11</v>
+      </c>
+      <c r="D867" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="E867" s="3">
+        <v>267914.09999999998</v>
+      </c>
+      <c r="F867" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" t="s">
+        <v>931</v>
+      </c>
+      <c r="D868" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E868" s="3">
+        <v>267914.59999999998</v>
+      </c>
+      <c r="F868" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>866</v>
+      </c>
+      <c r="B869" t="s">
+        <v>932</v>
+      </c>
+      <c r="C869" t="s">
+        <v>11</v>
+      </c>
+      <c r="D869" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E869" s="3">
+        <v>267915.09999999998</v>
+      </c>
+      <c r="F869" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>866</v>
+      </c>
+      <c r="B870" t="s">
+        <v>933</v>
+      </c>
+      <c r="C870" t="s">
+        <v>11</v>
+      </c>
+      <c r="D870" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E870" s="3">
+        <v>267915.59999999998</v>
+      </c>
+      <c r="F870" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>866</v>
+      </c>
+      <c r="B871" t="s">
+        <v>934</v>
+      </c>
+      <c r="C871" t="s">
+        <v>8</v>
+      </c>
+      <c r="D871" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E871" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F871" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>936</v>
+      </c>
+      <c r="B872" t="s">
+        <v>937</v>
+      </c>
+      <c r="D872" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E872" s="3">
+        <v>267916.59999999998</v>
+      </c>
+      <c r="F872" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873" t="s">
+        <v>938</v>
+      </c>
+      <c r="C873" t="s">
+        <v>8</v>
+      </c>
+      <c r="D873" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E873" s="3">
+        <v>267917.03999999998</v>
+      </c>
+      <c r="F873" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874" t="s">
+        <v>939</v>
+      </c>
+      <c r="C874" t="s">
+        <v>8</v>
+      </c>
+      <c r="D874" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E874" s="3">
+        <v>267917.44</v>
+      </c>
+      <c r="F874" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>872</v>
+      </c>
+      <c r="B875" t="s">
+        <v>940</v>
+      </c>
+      <c r="C875" t="s">
+        <v>11</v>
+      </c>
+      <c r="D875" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E875" s="3">
+        <v>267917.84000000003</v>
+      </c>
+      <c r="F875" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>941</v>
+      </c>
+      <c r="B876" t="s">
+        <v>942</v>
+      </c>
+      <c r="C876" t="s">
+        <v>11</v>
+      </c>
+      <c r="D876" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E876" s="3">
+        <v>267918.24</v>
+      </c>
+      <c r="F876" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>872</v>
+      </c>
+      <c r="B877" t="s">
+        <v>943</v>
+      </c>
+      <c r="C877" t="s">
+        <v>8</v>
+      </c>
+      <c r="D877" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E877" s="3">
+        <v>267918.64</v>
+      </c>
+      <c r="F877" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878" t="s">
+        <v>944</v>
+      </c>
+      <c r="C878" t="s">
+        <v>11</v>
+      </c>
+      <c r="D878" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E878" s="3">
+        <v>267919.03000000003</v>
+      </c>
+      <c r="F878" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879" t="s">
+        <v>945</v>
+      </c>
+      <c r="C879" t="s">
+        <v>8</v>
+      </c>
+      <c r="D879" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E879" s="3">
+        <v>267919.38</v>
+      </c>
+      <c r="F879" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880" t="s">
+        <v>946</v>
+      </c>
+      <c r="C880" t="s">
+        <v>8</v>
+      </c>
+      <c r="D880" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E880" s="3">
+        <v>267919.68</v>
+      </c>
+      <c r="F880" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>947</v>
+      </c>
+      <c r="B881" t="s">
+        <v>948</v>
+      </c>
+      <c r="C881" t="s">
+        <v>11</v>
+      </c>
+      <c r="D881" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E881" s="3">
+        <v>267919.98</v>
+      </c>
+      <c r="F881" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882" t="s">
+        <v>949</v>
+      </c>
+      <c r="C882" t="s">
+        <v>8</v>
+      </c>
+      <c r="D882" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E882" s="3">
+        <v>267920.23</v>
+      </c>
+      <c r="F882" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883" t="s">
+        <v>950</v>
+      </c>
+      <c r="C883" t="s">
+        <v>8</v>
+      </c>
+      <c r="D883" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E883" s="3">
+        <v>267920.43</v>
+      </c>
+      <c r="F883" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>881</v>
+      </c>
+      <c r="B884" t="s">
+        <v>951</v>
+      </c>
+      <c r="C884" t="s">
+        <v>11</v>
+      </c>
+      <c r="D884" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E884" s="3">
+        <v>267920.63</v>
+      </c>
+      <c r="F884" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>881</v>
+      </c>
+      <c r="B885" t="s">
+        <v>952</v>
+      </c>
+      <c r="C885" t="s">
+        <v>11</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E885" s="3">
+        <v>267920.83</v>
+      </c>
+      <c r="F885" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>881</v>
+      </c>
+      <c r="B886" t="s">
+        <v>954</v>
+      </c>
+      <c r="C886" t="s">
+        <v>11</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E886" s="3">
+        <v>267921.03000000003</v>
+      </c>
+      <c r="F886" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>881</v>
+      </c>
+      <c r="B887" t="s">
+        <v>955</v>
+      </c>
+      <c r="C887" t="s">
+        <v>11</v>
+      </c>
+      <c r="D887" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E887" s="3">
+        <v>267921.23</v>
+      </c>
+      <c r="F887" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>881</v>
+      </c>
+      <c r="B888" t="s">
+        <v>956</v>
+      </c>
+      <c r="C888" t="s">
+        <v>11</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="E888" s="3">
+        <v>267921.43</v>
+      </c>
+      <c r="F888" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>958</v>
+      </c>
+      <c r="B889" t="s">
+        <v>959</v>
+      </c>
+      <c r="C889" t="s">
+        <v>11</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="E889" s="3">
+        <v>267921.59999999998</v>
+      </c>
+      <c r="F889" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890" t="s">
+        <v>961</v>
+      </c>
+      <c r="C890" t="s">
+        <v>8</v>
+      </c>
+      <c r="D890" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E890" s="3">
+        <v>267921.71000000002</v>
+      </c>
+      <c r="F890" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891" t="s">
+        <v>962</v>
+      </c>
+      <c r="C891" t="s">
+        <v>11</v>
+      </c>
+      <c r="D891" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E891" s="3">
+        <v>267921.81</v>
+      </c>
+      <c r="F891" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>889</v>
+      </c>
+      <c r="B892" t="s">
+        <v>963</v>
+      </c>
+      <c r="C892" t="s">
+        <v>11</v>
+      </c>
+      <c r="D892" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E892" s="3">
+        <v>267921.90999999997</v>
+      </c>
+      <c r="F892" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>889</v>
+      </c>
+      <c r="B893" t="s">
+        <v>964</v>
+      </c>
+      <c r="C893" t="s">
+        <v>11</v>
+      </c>
+      <c r="D893" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E893" s="3">
+        <v>2671922.0099999998</v>
+      </c>
+      <c r="F893" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>889</v>
+      </c>
+      <c r="B894" t="s">
+        <v>965</v>
+      </c>
+      <c r="C894" t="s">
+        <v>11</v>
+      </c>
+      <c r="D894" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E894" s="3">
+        <v>267922.11</v>
+      </c>
+      <c r="F894" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>889</v>
+      </c>
+      <c r="B895" t="s">
+        <v>966</v>
+      </c>
+      <c r="C895" t="s">
+        <v>11</v>
+      </c>
+      <c r="D895" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E895" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F895" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>967</v>
+      </c>
+      <c r="C896" t="s">
+        <v>11</v>
+      </c>
+      <c r="D896" s="3">
+        <v>0</v>
+      </c>
+      <c r="E896" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F896" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>894</v>
+      </c>
+      <c r="B897" t="s">
+        <v>968</v>
+      </c>
+      <c r="C897" t="s">
+        <v>11</v>
+      </c>
+      <c r="D897" s="3">
+        <v>0</v>
+      </c>
+      <c r="E897" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F897" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>894</v>
+      </c>
+      <c r="B898" t="s">
+        <v>969</v>
+      </c>
+      <c r="C898" t="s">
+        <v>11</v>
+      </c>
+      <c r="D898" s="3">
+        <v>0</v>
+      </c>
+      <c r="E898" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F898" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>894</v>
+      </c>
+      <c r="B899" t="s">
+        <v>970</v>
+      </c>
+      <c r="C899" t="s">
+        <v>11</v>
+      </c>
+      <c r="D899" s="3">
+        <v>0</v>
+      </c>
+      <c r="E899" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F899" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>894</v>
+      </c>
+      <c r="B900" t="s">
+        <v>971</v>
+      </c>
+      <c r="C900" t="s">
+        <v>11</v>
+      </c>
+      <c r="D900" s="3">
+        <v>0</v>
+      </c>
+      <c r="E900" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F900" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>894</v>
+      </c>
+      <c r="B901" t="s">
+        <v>972</v>
+      </c>
+      <c r="D901" s="3">
+        <v>0</v>
+      </c>
+      <c r="E901" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F901" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>894</v>
+      </c>
+      <c r="B902" t="s">
+        <v>973</v>
+      </c>
+      <c r="C902" t="s">
+        <v>11</v>
+      </c>
+      <c r="D902" s="3">
+        <v>0</v>
+      </c>
+      <c r="E902" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F902" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>894</v>
+      </c>
+      <c r="B903" t="s">
+        <v>974</v>
+      </c>
+      <c r="C903" t="s">
+        <v>11</v>
+      </c>
+      <c r="D903" s="3">
+        <v>0</v>
+      </c>
+      <c r="E903" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F903" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>894</v>
+      </c>
+      <c r="B904" t="s">
+        <v>975</v>
+      </c>
+      <c r="C904" t="s">
+        <v>11</v>
+      </c>
+      <c r="D904" s="3">
+        <v>0</v>
+      </c>
+      <c r="E904" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F904" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>894</v>
+      </c>
+      <c r="B905" t="s">
+        <v>976</v>
+      </c>
+      <c r="C905" t="s">
+        <v>8</v>
+      </c>
+      <c r="D905" s="3">
+        <v>0</v>
+      </c>
+      <c r="E905" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F905" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>894</v>
+      </c>
+      <c r="B906" t="s">
+        <v>977</v>
+      </c>
+      <c r="C906" t="s">
+        <v>8</v>
+      </c>
+      <c r="D906" s="3">
+        <v>0</v>
+      </c>
+      <c r="E906" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F906" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>894</v>
+      </c>
+      <c r="B907" t="s">
+        <v>978</v>
+      </c>
+      <c r="C907" t="s">
+        <v>11</v>
+      </c>
+      <c r="D907" s="3">
+        <v>0</v>
+      </c>
+      <c r="E907" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F907" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>894</v>
+      </c>
+      <c r="B908" t="s">
+        <v>979</v>
+      </c>
+      <c r="C908" t="s">
+        <v>11</v>
+      </c>
+      <c r="D908" s="3">
+        <v>0</v>
+      </c>
+      <c r="E908" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F908" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="B909" t="s">
+        <v>980</v>
+      </c>
+      <c r="D909" s="3">
+        <v>0</v>
+      </c>
+      <c r="E909" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F909" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="B910" t="s">
+        <v>981</v>
+      </c>
+      <c r="C910" t="s">
+        <v>11</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E910" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F910" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>894</v>
+      </c>
+      <c r="B911" t="s">
+        <v>983</v>
+      </c>
+      <c r="C911" t="s">
+        <v>11</v>
+      </c>
+      <c r="D911" s="3">
+        <v>0</v>
+      </c>
+      <c r="E911" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F911" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>894</v>
+      </c>
+      <c r="B912" t="s">
+        <v>984</v>
+      </c>
+      <c r="D912" s="3">
+        <v>0</v>
+      </c>
+      <c r="E912" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F912" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>894</v>
+      </c>
+      <c r="B913" t="s">
+        <v>985</v>
+      </c>
+      <c r="C913" t="s">
+        <v>11</v>
+      </c>
+      <c r="D913" s="3">
+        <v>0</v>
+      </c>
+      <c r="E913" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F913" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>894</v>
+      </c>
+      <c r="B914" t="s">
+        <v>986</v>
+      </c>
+      <c r="C914" t="s">
+        <v>11</v>
+      </c>
+      <c r="D914" s="3">
+        <v>0</v>
+      </c>
+      <c r="E914" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F914" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>894</v>
+      </c>
+      <c r="B915" t="s">
+        <v>987</v>
+      </c>
+      <c r="C915" t="s">
+        <v>11</v>
+      </c>
+      <c r="D915" s="3">
+        <v>0</v>
+      </c>
+      <c r="E915" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F915" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>894</v>
+      </c>
+      <c r="B916" t="s">
+        <v>988</v>
+      </c>
+      <c r="C916" t="s">
+        <v>11</v>
+      </c>
+      <c r="D916" s="3">
+        <v>0</v>
+      </c>
+      <c r="E916" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F916" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>894</v>
+      </c>
+      <c r="B917" t="s">
+        <v>989</v>
+      </c>
+      <c r="C917" t="s">
+        <v>11</v>
+      </c>
+      <c r="D917" s="3">
+        <v>0</v>
+      </c>
+      <c r="E917" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F917" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>894</v>
+      </c>
+      <c r="B918" t="s">
+        <v>990</v>
+      </c>
+      <c r="C918" t="s">
+        <v>8</v>
+      </c>
+      <c r="D918" s="3">
+        <v>0</v>
+      </c>
+      <c r="E918" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F918" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>894</v>
+      </c>
+      <c r="B919" t="s">
+        <v>991</v>
+      </c>
+      <c r="C919" t="s">
+        <v>11</v>
+      </c>
+      <c r="D919" s="3">
+        <v>0</v>
+      </c>
+      <c r="E919" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F919" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>894</v>
+      </c>
+      <c r="B920" t="s">
+        <v>992</v>
+      </c>
+      <c r="D920" s="3">
+        <v>0</v>
+      </c>
+      <c r="E920" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F920" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>894</v>
+      </c>
+      <c r="B921" t="s">
+        <v>993</v>
+      </c>
+      <c r="C921" t="s">
+        <v>11</v>
+      </c>
+      <c r="D921" s="3">
+        <v>0</v>
+      </c>
+      <c r="E921" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F921" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>894</v>
+      </c>
+      <c r="B922" t="s">
+        <v>994</v>
+      </c>
+      <c r="C922" t="s">
+        <v>11</v>
+      </c>
+      <c r="D922" s="3">
+        <v>0</v>
+      </c>
+      <c r="E922" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F922" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>894</v>
+      </c>
+      <c r="B923" t="s">
+        <v>995</v>
+      </c>
+      <c r="C923" t="s">
+        <v>11</v>
+      </c>
+      <c r="D923" s="3">
+        <v>0</v>
+      </c>
+      <c r="E923" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F923" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>894</v>
+      </c>
+      <c r="B924" t="s">
+        <v>996</v>
+      </c>
+      <c r="C924" t="s">
+        <v>11</v>
+      </c>
+      <c r="D924" s="3">
+        <v>0</v>
+      </c>
+      <c r="E924" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F924" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>894</v>
+      </c>
+      <c r="B925" t="s">
+        <v>997</v>
+      </c>
+      <c r="C925" t="s">
+        <v>11</v>
+      </c>
+      <c r="D925" s="3">
+        <v>0</v>
+      </c>
+      <c r="E925" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F925" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>894</v>
+      </c>
+      <c r="B926" t="s">
+        <v>998</v>
+      </c>
+      <c r="C926" t="s">
+        <v>11</v>
+      </c>
+      <c r="D926" s="3">
+        <v>0</v>
+      </c>
+      <c r="E926" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F926" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>894</v>
+      </c>
+      <c r="B927" t="s">
+        <v>999</v>
+      </c>
+      <c r="C927" t="s">
+        <v>11</v>
+      </c>
+      <c r="D927" s="3">
+        <v>0</v>
+      </c>
+      <c r="E927" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F927" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>894</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D928" s="3">
+        <v>0</v>
+      </c>
+      <c r="E928" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F928" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>894</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C929" t="s">
+        <v>11</v>
+      </c>
+      <c r="D929" s="3">
+        <v>0</v>
+      </c>
+      <c r="E929" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F929" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>894</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D930" s="3">
+        <v>0</v>
+      </c>
+      <c r="E930" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F930" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>894</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D931" s="3">
+        <v>0</v>
+      </c>
+      <c r="E931" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F931" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>894</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D932" s="3">
+        <v>0</v>
+      </c>
+      <c r="E932" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F932" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>894</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C933" t="s">
+        <v>11</v>
+      </c>
+      <c r="D933" s="3">
+        <v>0</v>
+      </c>
+      <c r="E933" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F933" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>894</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C934" t="s">
+        <v>8</v>
+      </c>
+      <c r="D934" s="3">
+        <v>0</v>
+      </c>
+      <c r="E934" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F934" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>894</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C935" t="s">
+        <v>11</v>
+      </c>
+      <c r="D935" s="3">
+        <v>0</v>
+      </c>
+      <c r="E935" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F935" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>894</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C936" t="s">
+        <v>11</v>
+      </c>
+      <c r="D936" s="3">
+        <v>0</v>
+      </c>
+      <c r="E936" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F936" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>894</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C937" t="s">
+        <v>11</v>
+      </c>
+      <c r="D937" s="3">
+        <v>0</v>
+      </c>
+      <c r="E937" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F937" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>894</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C938" t="s">
+        <v>11</v>
+      </c>
+      <c r="D938" s="3">
+        <v>0</v>
+      </c>
+      <c r="E938" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F938" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>894</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C939" t="s">
+        <v>11</v>
+      </c>
+      <c r="D939" s="3">
+        <v>0</v>
+      </c>
+      <c r="E939" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F939" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>894</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C940" t="s">
+        <v>11</v>
+      </c>
+      <c r="D940" s="3">
+        <v>0</v>
+      </c>
+      <c r="E940" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F940" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>894</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C941" t="s">
+        <v>11</v>
+      </c>
+      <c r="D941" s="3">
+        <v>0</v>
+      </c>
+      <c r="E941" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F941" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>894</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C942" t="s">
+        <v>11</v>
+      </c>
+      <c r="D942" s="3">
+        <v>0</v>
+      </c>
+      <c r="E942" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F942" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>894</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C943" t="s">
+        <v>11</v>
+      </c>
+      <c r="D943" s="3">
+        <v>0</v>
+      </c>
+      <c r="E943" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F943" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>894</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C944" t="s">
+        <v>11</v>
+      </c>
+      <c r="D944" s="3">
+        <v>0</v>
+      </c>
+      <c r="E944" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F944" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>894</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C945" t="s">
+        <v>11</v>
+      </c>
+      <c r="D945" s="3">
+        <v>0</v>
+      </c>
+      <c r="E945" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F945" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>894</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C946" t="s">
+        <v>11</v>
+      </c>
+      <c r="D946" s="3">
+        <v>0</v>
+      </c>
+      <c r="E946" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F946" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>894</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D947" s="3">
+        <v>0</v>
+      </c>
+      <c r="E947" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F947" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>894</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C948" t="s">
+        <v>11</v>
+      </c>
+      <c r="D948" s="3">
+        <v>0</v>
+      </c>
+      <c r="E948" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F948" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>894</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C949" t="s">
+        <v>8</v>
+      </c>
+      <c r="D949" s="3">
+        <v>0</v>
+      </c>
+      <c r="E949" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F949" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>894</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C950" t="s">
+        <v>11</v>
+      </c>
+      <c r="D950" s="3">
+        <v>0</v>
+      </c>
+      <c r="E950" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F950" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>894</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C951" t="s">
+        <v>11</v>
+      </c>
+      <c r="D951" s="3">
+        <v>0</v>
+      </c>
+      <c r="E951" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F951" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>894</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C952" t="s">
+        <v>8</v>
+      </c>
+      <c r="D952" s="3">
+        <v>0</v>
+      </c>
+      <c r="E952" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F952" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>894</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C953" t="s">
+        <v>11</v>
+      </c>
+      <c r="D953" s="3">
+        <v>0</v>
+      </c>
+      <c r="E953" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F953" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>894</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C954" t="s">
+        <v>8</v>
+      </c>
+      <c r="D954" s="3">
+        <v>0</v>
+      </c>
+      <c r="E954" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F954" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>894</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C955" t="s">
+        <v>8</v>
+      </c>
+      <c r="D955" s="3">
+        <v>0</v>
+      </c>
+      <c r="E955" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F955" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>894</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C956" t="s">
+        <v>11</v>
+      </c>
+      <c r="D956" s="3">
+        <v>0</v>
+      </c>
+      <c r="E956" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F956" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>894</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C957" t="s">
+        <v>11</v>
+      </c>
+      <c r="D957" s="3">
+        <v>0</v>
+      </c>
+      <c r="E957" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F957" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>894</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C958" t="s">
+        <v>11</v>
+      </c>
+      <c r="D958" s="3">
+        <v>0</v>
+      </c>
+      <c r="E958" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F958" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>894</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C959" t="s">
+        <v>11</v>
+      </c>
+      <c r="D959" s="3">
+        <v>0</v>
+      </c>
+      <c r="E959" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F959" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>894</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C960" t="s">
+        <v>11</v>
+      </c>
+      <c r="D960" s="3">
+        <v>0</v>
+      </c>
+      <c r="E960" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F960" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>894</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C961" t="s">
+        <v>11</v>
+      </c>
+      <c r="D961" s="3">
+        <v>0</v>
+      </c>
+      <c r="E961" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F961" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>894</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C962" t="s">
+        <v>11</v>
+      </c>
+      <c r="D962" s="3">
+        <v>0</v>
+      </c>
+      <c r="E962" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F962" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>894</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C963" t="s">
+        <v>8</v>
+      </c>
+      <c r="D963" s="3">
+        <v>0</v>
+      </c>
+      <c r="E963" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F963" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>894</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C964" t="s">
+        <v>11</v>
+      </c>
+      <c r="D964" s="3">
+        <v>0</v>
+      </c>
+      <c r="E964" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F964" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>894</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C965" t="s">
+        <v>11</v>
+      </c>
+      <c r="D965" s="3">
+        <v>0</v>
+      </c>
+      <c r="E965" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F965" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>894</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C966" t="s">
+        <v>11</v>
+      </c>
+      <c r="D966" s="3">
+        <v>0</v>
+      </c>
+      <c r="E966" s="3">
+        <v>267922.21000000002</v>
+      </c>
+      <c r="F966" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
